--- a/BackTest/2019-10-19 BackTest INS.xlsx
+++ b/BackTest/2019-10-19 BackTest INS.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>7</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>42.85714285714285</v>
+      </c>
       <c r="L12" t="n">
         <v>214.8</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>8</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>50</v>
+      </c>
       <c r="L13" t="n">
         <v>215.2</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>8</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>42.85714285714285</v>
+      </c>
       <c r="L14" t="n">
         <v>215.6</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>10</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>25</v>
+      </c>
       <c r="L15" t="n">
         <v>215.7</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>11</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L16" t="n">
         <v>216</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>13</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>40</v>
+      </c>
       <c r="L17" t="n">
         <v>216.5</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>14</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>45.45454545454545</v>
+      </c>
       <c r="L18" t="n">
         <v>217</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>14</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>60</v>
+      </c>
       <c r="L19" t="n">
         <v>217.5</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>14</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>50</v>
+      </c>
       <c r="L20" t="n">
         <v>218.1</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>15</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>25</v>
+      </c>
       <c r="L21" t="n">
         <v>218.4</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>15</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L22" t="n">
         <v>218.6</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>15</v>
       </c>
       <c r="K23" t="n">
-        <v>33.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L23" t="n">
         <v>218.7</v>
@@ -1466,7 +1488,7 @@
         <v>15</v>
       </c>
       <c r="K24" t="n">
-        <v>33.33333333333333</v>
+        <v>60</v>
       </c>
       <c r="L24" t="n">
         <v>218.8</v>
@@ -1564,7 +1586,7 @@
         <v>17</v>
       </c>
       <c r="K26" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>219.2</v>
@@ -1613,7 +1635,7 @@
         <v>17</v>
       </c>
       <c r="K27" t="n">
-        <v>33.33333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L27" t="n">
         <v>219.2</v>
@@ -1662,7 +1684,7 @@
         <v>18</v>
       </c>
       <c r="K28" t="n">
-        <v>20</v>
+        <v>-50</v>
       </c>
       <c r="L28" t="n">
         <v>219</v>
@@ -1711,7 +1733,7 @@
         <v>20</v>
       </c>
       <c r="K29" t="n">
-        <v>5.88235294117647</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L29" t="n">
         <v>218.6</v>
@@ -1760,7 +1782,7 @@
         <v>20</v>
       </c>
       <c r="K30" t="n">
-        <v>12.5</v>
+        <v>-60</v>
       </c>
       <c r="L30" t="n">
         <v>218.2</v>
@@ -1809,7 +1831,7 @@
         <v>21</v>
       </c>
       <c r="K31" t="n">
-        <v>6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L31" t="n">
         <v>218</v>
@@ -1860,7 +1882,7 @@
         <v>21</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L32" t="n">
         <v>217.8</v>
@@ -1911,7 +1933,7 @@
         <v>21</v>
       </c>
       <c r="K33" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L33" t="n">
         <v>217.6</v>
@@ -2013,7 +2035,7 @@
         <v>22</v>
       </c>
       <c r="K35" t="n">
-        <v>16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L35" t="n">
         <v>217.5</v>
@@ -2068,7 +2090,7 @@
         <v>23</v>
       </c>
       <c r="K36" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>217.5</v>
@@ -2123,7 +2145,7 @@
         <v>24</v>
       </c>
       <c r="K37" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>217.4</v>
@@ -2182,7 +2204,7 @@
         <v>24</v>
       </c>
       <c r="K38" t="n">
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="L38" t="n">
         <v>217.4</v>
@@ -2243,7 +2265,7 @@
         <v>25</v>
       </c>
       <c r="K39" t="n">
-        <v>-9.090909090909092</v>
+        <v>60</v>
       </c>
       <c r="L39" t="n">
         <v>217.7</v>
@@ -2306,7 +2328,7 @@
         <v>28</v>
       </c>
       <c r="K40" t="n">
-        <v>14.28571428571428</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L40" t="n">
         <v>218.3</v>
@@ -2367,7 +2389,7 @@
         <v>28</v>
       </c>
       <c r="K41" t="n">
-        <v>23.07692307692308</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L41" t="n">
         <v>218.8</v>
@@ -2430,7 +2452,7 @@
         <v>28</v>
       </c>
       <c r="K42" t="n">
-        <v>23.07692307692308</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L42" t="n">
         <v>219.3</v>
@@ -2491,7 +2513,7 @@
         <v>29</v>
       </c>
       <c r="K43" t="n">
-        <v>28.57142857142857</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L43" t="n">
         <v>219.9</v>
@@ -2554,7 +2576,7 @@
         <v>29</v>
       </c>
       <c r="K44" t="n">
-        <v>28.57142857142857</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L44" t="n">
         <v>220.4</v>
@@ -2615,7 +2637,7 @@
         <v>29</v>
       </c>
       <c r="K45" t="n">
-        <v>38.46153846153847</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L45" t="n">
         <v>220.9</v>
@@ -2678,7 +2700,7 @@
         <v>29</v>
       </c>
       <c r="K46" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L46" t="n">
         <v>221.3</v>
@@ -2739,7 +2761,7 @@
         <v>30</v>
       </c>
       <c r="K47" t="n">
-        <v>38.46153846153847</v>
+        <v>100</v>
       </c>
       <c r="L47" t="n">
         <v>221.9</v>
@@ -2798,7 +2820,7 @@
         <v>30</v>
       </c>
       <c r="K48" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L48" t="n">
         <v>222.5</v>
@@ -2859,7 +2881,7 @@
         <v>30</v>
       </c>
       <c r="K49" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L49" t="n">
         <v>223</v>
@@ -2920,7 +2942,7 @@
         <v>30</v>
       </c>
       <c r="K50" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L50" t="n">
         <v>223.2</v>
@@ -2981,7 +3003,7 @@
         <v>31</v>
       </c>
       <c r="K51" t="n">
-        <v>60</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L51" t="n">
         <v>223.3</v>
@@ -3042,7 +3064,7 @@
         <v>32</v>
       </c>
       <c r="K52" t="n">
-        <v>63.63636363636363</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L52" t="n">
         <v>223.5</v>
@@ -3103,7 +3125,7 @@
         <v>32</v>
       </c>
       <c r="K53" t="n">
-        <v>63.63636363636363</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L53" t="n">
         <v>223.6</v>
@@ -3166,7 +3188,7 @@
         <v>32</v>
       </c>
       <c r="K54" t="n">
-        <v>60</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L54" t="n">
         <v>223.7</v>
@@ -3227,7 +3249,7 @@
         <v>33</v>
       </c>
       <c r="K55" t="n">
-        <v>63.63636363636363</v>
+        <v>50</v>
       </c>
       <c r="L55" t="n">
         <v>223.9</v>
@@ -3286,7 +3308,7 @@
         <v>34</v>
       </c>
       <c r="K56" t="n">
-        <v>63.63636363636363</v>
+        <v>50</v>
       </c>
       <c r="L56" t="n">
         <v>224.2</v>
@@ -3345,7 +3367,7 @@
         <v>34</v>
       </c>
       <c r="K57" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L57" t="n">
         <v>224.4</v>
@@ -3400,7 +3422,7 @@
         <v>34</v>
       </c>
       <c r="K58" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L58" t="n">
         <v>224.6</v>
@@ -3459,7 +3481,7 @@
         <v>34</v>
       </c>
       <c r="K59" t="n">
-        <v>77.77777777777779</v>
+        <v>50</v>
       </c>
       <c r="L59" t="n">
         <v>224.8</v>
@@ -3518,7 +3540,7 @@
         <v>34</v>
       </c>
       <c r="K60" t="n">
-        <v>66.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L60" t="n">
         <v>225</v>
@@ -3577,7 +3599,7 @@
         <v>34</v>
       </c>
       <c r="K61" t="n">
-        <v>66.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L61" t="n">
         <v>225.3</v>
@@ -3636,7 +3658,7 @@
         <v>35</v>
       </c>
       <c r="K62" t="n">
-        <v>71.42857142857143</v>
+        <v>100</v>
       </c>
       <c r="L62" t="n">
         <v>225.6</v>
@@ -3695,7 +3717,7 @@
         <v>36</v>
       </c>
       <c r="K63" t="n">
-        <v>71.42857142857143</v>
+        <v>100</v>
       </c>
       <c r="L63" t="n">
         <v>226</v>
@@ -3754,7 +3776,7 @@
         <v>37</v>
       </c>
       <c r="K64" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L64" t="n">
         <v>226.5</v>
@@ -3813,7 +3835,7 @@
         <v>38</v>
       </c>
       <c r="K65" t="n">
-        <v>77.77777777777779</v>
+        <v>100</v>
       </c>
       <c r="L65" t="n">
         <v>227</v>
@@ -3872,7 +3894,7 @@
         <v>39</v>
       </c>
       <c r="K66" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L66" t="n">
         <v>227.5</v>
@@ -3931,7 +3953,7 @@
         <v>42</v>
       </c>
       <c r="K67" t="n">
-        <v>83.33333333333334</v>
+        <v>100</v>
       </c>
       <c r="L67" t="n">
         <v>228.3</v>
@@ -3986,7 +4008,7 @@
         <v>42</v>
       </c>
       <c r="K68" t="n">
-        <v>83.33333333333334</v>
+        <v>100</v>
       </c>
       <c r="L68" t="n">
         <v>229.1</v>
@@ -4045,7 +4067,7 @@
         <v>42</v>
       </c>
       <c r="K69" t="n">
-        <v>83.33333333333334</v>
+        <v>100</v>
       </c>
       <c r="L69" t="n">
         <v>229.9</v>
@@ -4104,7 +4126,7 @@
         <v>43</v>
       </c>
       <c r="K70" t="n">
-        <v>69.23076923076923</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L70" t="n">
         <v>230.6</v>
@@ -4163,7 +4185,7 @@
         <v>44</v>
       </c>
       <c r="K71" t="n">
-        <v>84.61538461538461</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L71" t="n">
         <v>231.4</v>
@@ -4222,7 +4244,7 @@
         <v>44</v>
       </c>
       <c r="K72" t="n">
-        <v>83.33333333333334</v>
+        <v>75</v>
       </c>
       <c r="L72" t="n">
         <v>232.1</v>
@@ -4281,7 +4303,7 @@
         <v>46</v>
       </c>
       <c r="K73" t="n">
-        <v>85.71428571428571</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L73" t="n">
         <v>232.9</v>
@@ -4340,7 +4362,7 @@
         <v>49</v>
       </c>
       <c r="K74" t="n">
-        <v>52.94117647058824</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L74" t="n">
         <v>233.3</v>
@@ -4399,7 +4421,7 @@
         <v>49</v>
       </c>
       <c r="K75" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L75" t="n">
         <v>233.6</v>
@@ -4458,7 +4480,7 @@
         <v>51</v>
       </c>
       <c r="K76" t="n">
-        <v>52.94117647058824</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L76" t="n">
         <v>234</v>
@@ -4517,7 +4539,7 @@
         <v>51</v>
       </c>
       <c r="K77" t="n">
-        <v>52.94117647058824</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L77" t="n">
         <v>234.1</v>
@@ -4572,7 +4594,7 @@
         <v>51</v>
       </c>
       <c r="K78" t="n">
-        <v>52.94117647058824</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L78" t="n">
         <v>234.2</v>
@@ -4631,7 +4653,7 @@
         <v>52</v>
       </c>
       <c r="K79" t="n">
-        <v>44.44444444444444</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L79" t="n">
         <v>234.2</v>
@@ -4688,7 +4710,7 @@
         <v>56</v>
       </c>
       <c r="K80" t="n">
-        <v>54.54545454545454</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L80" t="n">
         <v>234.7</v>
@@ -4747,7 +4769,7 @@
         <v>58</v>
       </c>
       <c r="K81" t="n">
-        <v>41.66666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L81" t="n">
         <v>234.9</v>
@@ -4810,7 +4832,7 @@
         <v>61</v>
       </c>
       <c r="K82" t="n">
-        <v>46.15384615384615</v>
+        <v>20</v>
       </c>
       <c r="L82" t="n">
         <v>235.4</v>
@@ -4873,7 +4895,7 @@
         <v>61</v>
       </c>
       <c r="K83" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="L83" t="n">
         <v>235.7</v>

--- a/BackTest/2019-10-19 BackTest INS.xlsx
+++ b/BackTest/2019-10-19 BackTest INS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M102"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2177,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2247,6 +2303,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2282,6 +2339,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2317,6 +2375,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2352,6 +2411,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2387,6 +2447,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2422,6 +2483,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2457,6 +2519,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2492,6 +2555,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2527,6 +2591,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2562,6 +2627,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2597,6 +2663,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2632,6 +2699,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2667,6 +2735,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2702,6 +2771,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2737,6 +2807,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2772,6 +2843,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2807,6 +2879,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2846,6 +2919,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2887,6 +2961,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2930,6 +3005,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2969,6 +3045,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3010,6 +3087,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3051,6 +3129,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3086,6 +3165,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3121,6 +3201,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3156,6 +3237,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3191,6 +3273,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3226,6 +3309,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3261,6 +3345,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3296,6 +3381,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3331,6 +3417,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3366,6 +3453,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3401,6 +3489,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3436,6 +3525,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3471,6 +3561,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3506,6 +3597,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3541,6 +3633,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3576,6 +3669,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3611,6 +3705,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3646,6 +3741,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3681,6 +3777,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3716,6 +3813,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3751,6 +3849,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3786,6 +3885,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3821,6 +3921,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3848,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3856,6 +3957,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3891,6 +3993,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3926,6 +4029,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3961,6 +4065,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3996,6 +4101,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-19 BackTest INS.xlsx
+++ b/BackTest/2019-10-19 BackTest INS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N102"/>
+  <dimension ref="A1:N131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C2" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D2" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E2" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F2" t="n">
-        <v>1484.0308</v>
+        <v>1647</v>
       </c>
       <c r="G2" t="n">
-        <v>-30453.5653</v>
+        <v>-21554.0553</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C3" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D3" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E3" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F3" t="n">
-        <v>1328.9215</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>-31782.4868</v>
+        <v>-21554.0553</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C4" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D4" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E4" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F4" t="n">
-        <v>1245.4963</v>
+        <v>90</v>
       </c>
       <c r="G4" t="n">
-        <v>-31782.4868</v>
+        <v>-21554.0553</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C5" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D5" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E5" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F5" t="n">
-        <v>507</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>-31275.4868</v>
+        <v>-21554.0553</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C6" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D6" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E6" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F6" t="n">
-        <v>396.2903</v>
+        <v>945.0065</v>
       </c>
       <c r="G6" t="n">
-        <v>-31671.7771</v>
+        <v>-21554.0553</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C7" t="n">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D7" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E7" t="n">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F7" t="n">
-        <v>23104.5892</v>
+        <v>169</v>
       </c>
       <c r="G7" t="n">
-        <v>-54776.3663</v>
+        <v>-21554.0553</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C8" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D8" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E8" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F8" t="n">
-        <v>4323.5103</v>
+        <v>2298.3871</v>
       </c>
       <c r="G8" t="n">
-        <v>-50452.856</v>
+        <v>-23852.4424</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C9" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D9" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E9" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F9" t="n">
-        <v>4073.5102</v>
+        <v>142.8853</v>
       </c>
       <c r="G9" t="n">
-        <v>-50452.856</v>
+        <v>-23709.5571</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C10" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D10" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E10" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F10" t="n">
-        <v>6758.734</v>
+        <v>1959</v>
       </c>
       <c r="G10" t="n">
-        <v>-43694.122</v>
+        <v>-23709.5571</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C11" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D11" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E11" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F11" t="n">
-        <v>5027.6607</v>
+        <v>1715</v>
       </c>
       <c r="G11" t="n">
-        <v>-43694.122</v>
+        <v>-23709.5571</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C12" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D12" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E12" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F12" t="n">
-        <v>155</v>
+        <v>245</v>
       </c>
       <c r="G12" t="n">
-        <v>-43694.122</v>
+        <v>-23709.5571</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C13" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D13" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E13" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F13" t="n">
-        <v>150</v>
+        <v>766.8826</v>
       </c>
       <c r="G13" t="n">
-        <v>-43694.122</v>
+        <v>-23709.5571</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>215</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>420.4598</v>
       </c>
       <c r="G14" t="n">
-        <v>-43689.122</v>
+        <v>-23709.5571</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,7 +906,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C15" t="n">
         <v>215</v>
@@ -915,13 +915,13 @@
         <v>215</v>
       </c>
       <c r="E15" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>5273.5</v>
       </c>
       <c r="G15" t="n">
-        <v>-43689.122</v>
+        <v>-23709.5571</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -945,19 +945,19 @@
         <v>215</v>
       </c>
       <c r="C16" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D16" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E16" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F16" t="n">
-        <v>1616.8281</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>-42072.2939</v>
+        <v>-23709.5571</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C17" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D17" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E17" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F17" t="n">
-        <v>1104.6448</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>-43176.93870000001</v>
+        <v>-23709.5571</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C18" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D18" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E18" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>3286.1189</v>
       </c>
       <c r="G18" t="n">
-        <v>-43174.93870000001</v>
+        <v>-26995.676</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         <v>214</v>
       </c>
       <c r="C19" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D19" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E19" t="n">
         <v>214</v>
       </c>
       <c r="F19" t="n">
-        <v>435.2843</v>
+        <v>2396.5281</v>
       </c>
       <c r="G19" t="n">
-        <v>-43610.22300000001</v>
+        <v>-24599.1479</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>214</v>
       </c>
       <c r="F20" t="n">
-        <v>1116</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>-43610.22300000001</v>
+        <v>-24600.1479</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C21" t="n">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D21" t="n">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E21" t="n">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F21" t="n">
-        <v>416</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>-44026.22300000001</v>
+        <v>-24598.1479</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C22" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D22" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E22" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>6110.4174</v>
       </c>
       <c r="G22" t="n">
-        <v>-44025.22300000001</v>
+        <v>-30708.5653</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C23" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D23" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E23" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F23" t="n">
-        <v>250</v>
+        <v>590</v>
       </c>
       <c r="G23" t="n">
-        <v>-44025.22300000001</v>
+        <v>-30708.5653</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C24" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D24" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E24" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F24" t="n">
-        <v>357</v>
+        <v>718.9999</v>
       </c>
       <c r="G24" t="n">
-        <v>-44025.22300000001</v>
+        <v>-30708.5653</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C25" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D25" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E25" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F25" t="n">
-        <v>1689.9999</v>
+        <v>484</v>
       </c>
       <c r="G25" t="n">
-        <v>-44025.22300000001</v>
+        <v>-30708.5653</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C26" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D26" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E26" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F26" t="n">
-        <v>1423.4732</v>
+        <v>663.5886</v>
       </c>
       <c r="G26" t="n">
-        <v>-44025.22300000001</v>
+        <v>-30708.5653</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C27" t="n">
         <v>214</v>
@@ -1347,13 +1347,13 @@
         <v>214</v>
       </c>
       <c r="E27" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F27" t="n">
-        <v>332</v>
+        <v>263</v>
       </c>
       <c r="G27" t="n">
-        <v>-44025.22300000001</v>
+        <v>-30445.5653</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C28" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D28" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E28" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F28" t="n">
-        <v>2601</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>-44025.22300000001</v>
+        <v>-30443.5653</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1422,10 +1422,10 @@
         <v>214</v>
       </c>
       <c r="F29" t="n">
-        <v>3531.1672</v>
+        <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>-44025.22300000001</v>
+        <v>-30453.5653</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1458,10 +1458,10 @@
         <v>214</v>
       </c>
       <c r="F30" t="n">
-        <v>4392</v>
+        <v>2880</v>
       </c>
       <c r="G30" t="n">
-        <v>-44025.22300000001</v>
+        <v>-30453.5653</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>214</v>
       </c>
       <c r="F31" t="n">
-        <v>2129</v>
+        <v>1484.0308</v>
       </c>
       <c r="G31" t="n">
-        <v>-44025.22300000001</v>
+        <v>-30453.5653</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C32" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D32" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E32" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F32" t="n">
-        <v>229.4903</v>
+        <v>1328.9215</v>
       </c>
       <c r="G32" t="n">
-        <v>-44025.22300000001</v>
+        <v>-31782.4868</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C33" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D33" t="n">
         <v>214</v>
       </c>
       <c r="E33" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F33" t="n">
-        <v>211</v>
+        <v>1245.4963</v>
       </c>
       <c r="G33" t="n">
-        <v>-44025.22300000001</v>
+        <v>-31782.4868</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1602,10 +1602,10 @@
         <v>214</v>
       </c>
       <c r="F34" t="n">
-        <v>155.9644</v>
+        <v>507</v>
       </c>
       <c r="G34" t="n">
-        <v>-44025.22300000001</v>
+        <v>-31275.4868</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C35" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D35" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E35" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>396.2903</v>
       </c>
       <c r="G35" t="n">
-        <v>-44023.22300000001</v>
+        <v>-31671.7771</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C36" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D36" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E36" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F36" t="n">
-        <v>818.98</v>
+        <v>23104.5892</v>
       </c>
       <c r="G36" t="n">
-        <v>-44842.20300000001</v>
+        <v>-54776.3663</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C37" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D37" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E37" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F37" t="n">
-        <v>1005</v>
+        <v>4323.5103</v>
       </c>
       <c r="G37" t="n">
-        <v>-44842.20300000001</v>
+        <v>-50452.856</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C38" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D38" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E38" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>4073.5102</v>
       </c>
       <c r="G38" t="n">
-        <v>-44841.20300000001</v>
+        <v>-50452.856</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D39" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E39" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F39" t="n">
-        <v>47.8177</v>
+        <v>6758.734</v>
       </c>
       <c r="G39" t="n">
-        <v>-44841.20300000001</v>
+        <v>-43694.122</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>214</v>
       </c>
       <c r="F40" t="n">
-        <v>47.8177</v>
+        <v>5027.6607</v>
       </c>
       <c r="G40" t="n">
-        <v>-44889.02070000001</v>
+        <v>-43694.122</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C41" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D41" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E41" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F41" t="n">
-        <v>3009.4076</v>
+        <v>155</v>
       </c>
       <c r="G41" t="n">
-        <v>-41879.61310000001</v>
+        <v>-43694.122</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C42" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D42" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E42" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F42" t="n">
-        <v>2312</v>
+        <v>150</v>
       </c>
       <c r="G42" t="n">
-        <v>-39567.61310000001</v>
+        <v>-43694.122</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C43" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D43" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E43" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G43" t="n">
-        <v>-39566.61310000001</v>
+        <v>-43689.122</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C44" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D44" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E44" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F44" t="n">
-        <v>1168.5604</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>-39566.61310000001</v>
+        <v>-43689.122</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C45" t="n">
         <v>216</v>
       </c>
       <c r="D45" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E45" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F45" t="n">
-        <v>1066</v>
+        <v>1616.8281</v>
       </c>
       <c r="G45" t="n">
-        <v>-40632.61310000001</v>
+        <v>-42072.2939</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C46" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D46" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E46" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F46" t="n">
-        <v>999.934</v>
+        <v>1104.6448</v>
       </c>
       <c r="G46" t="n">
-        <v>-39632.67910000001</v>
+        <v>-43176.93870000001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C47" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D47" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E47" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F47" t="n">
-        <v>249.6747</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>-39383.00440000001</v>
+        <v>-43174.93870000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C48" t="n">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D48" t="n">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E48" t="n">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>435.2843</v>
       </c>
       <c r="G48" t="n">
-        <v>-39380.00440000001</v>
+        <v>-43610.22300000001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,31 +2130,35 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C49" t="n">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D49" t="n">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E49" t="n">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F49" t="n">
-        <v>736.881</v>
+        <v>1116</v>
       </c>
       <c r="G49" t="n">
-        <v>-39380.00440000001</v>
+        <v>-43610.22300000001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>214</v>
+      </c>
+      <c r="K49" t="n">
+        <v>214</v>
+      </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
@@ -2166,22 +2170,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C50" t="n">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D50" t="n">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E50" t="n">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="F50" t="n">
-        <v>3100.6918</v>
+        <v>416</v>
       </c>
       <c r="G50" t="n">
-        <v>-39380.00440000001</v>
+        <v>-44026.22300000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2190,8 +2194,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>214</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2202,32 +2212,40 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C51" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D51" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E51" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F51" t="n">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>-41380.00440000001</v>
+        <v>-44025.22300000001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>211</v>
+      </c>
+      <c r="K51" t="n">
+        <v>214</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2238,32 +2256,40 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C52" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D52" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E52" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F52" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G52" t="n">
-        <v>-41380.00440000001</v>
+        <v>-44025.22300000001</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>214</v>
+      </c>
+      <c r="K52" t="n">
+        <v>214</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2274,32 +2300,40 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C53" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D53" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E53" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F53" t="n">
-        <v>423</v>
+        <v>357</v>
       </c>
       <c r="G53" t="n">
-        <v>-41380.00440000001</v>
+        <v>-44025.22300000001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>214</v>
+      </c>
+      <c r="K53" t="n">
+        <v>214</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2310,32 +2344,40 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C54" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D54" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E54" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F54" t="n">
-        <v>577</v>
+        <v>1689.9999</v>
       </c>
       <c r="G54" t="n">
-        <v>-41380.00440000001</v>
+        <v>-44025.22300000001</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>214</v>
+      </c>
+      <c r="K54" t="n">
+        <v>214</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2346,32 +2388,40 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C55" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D55" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E55" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F55" t="n">
-        <v>1000</v>
+        <v>1423.4732</v>
       </c>
       <c r="G55" t="n">
-        <v>-42380.00440000001</v>
+        <v>-44025.22300000001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>214</v>
+      </c>
+      <c r="K55" t="n">
+        <v>214</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2382,32 +2432,40 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C56" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D56" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E56" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F56" t="n">
-        <v>1290</v>
+        <v>332</v>
       </c>
       <c r="G56" t="n">
-        <v>-41090.00440000001</v>
+        <v>-44025.22300000001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>214</v>
+      </c>
+      <c r="K56" t="n">
+        <v>214</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2418,32 +2476,40 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C57" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D57" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E57" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F57" t="n">
-        <v>43838.5591</v>
+        <v>2601</v>
       </c>
       <c r="G57" t="n">
-        <v>-41090.00440000001</v>
+        <v>-44025.22300000001</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>214</v>
+      </c>
+      <c r="K57" t="n">
+        <v>214</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2454,32 +2520,40 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C58" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D58" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E58" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F58" t="n">
-        <v>1233</v>
+        <v>3531.1672</v>
       </c>
       <c r="G58" t="n">
-        <v>-42323.00440000001</v>
+        <v>-44025.22300000001</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>214</v>
+      </c>
+      <c r="K58" t="n">
+        <v>214</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2490,32 +2564,40 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C59" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D59" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E59" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F59" t="n">
-        <v>10</v>
+        <v>4392</v>
       </c>
       <c r="G59" t="n">
-        <v>-42333.00440000001</v>
+        <v>-44025.22300000001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>214</v>
+      </c>
+      <c r="K59" t="n">
+        <v>214</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2526,32 +2608,40 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C60" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D60" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E60" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F60" t="n">
-        <v>3.9825</v>
+        <v>2129</v>
       </c>
       <c r="G60" t="n">
-        <v>-42333.00440000001</v>
+        <v>-44025.22300000001</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>214</v>
+      </c>
+      <c r="K60" t="n">
+        <v>214</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2562,32 +2652,40 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C61" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D61" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E61" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F61" t="n">
-        <v>1233</v>
+        <v>229.4903</v>
       </c>
       <c r="G61" t="n">
-        <v>-41100.00440000001</v>
+        <v>-44025.22300000001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>214</v>
+      </c>
+      <c r="K61" t="n">
+        <v>214</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2598,32 +2696,40 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C62" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D62" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E62" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F62" t="n">
-        <v>1361</v>
+        <v>211</v>
       </c>
       <c r="G62" t="n">
-        <v>-41100.00440000001</v>
+        <v>-44025.22300000001</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>214</v>
+      </c>
+      <c r="K62" t="n">
+        <v>214</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2634,32 +2740,40 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C63" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D63" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E63" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F63" t="n">
-        <v>15.1467</v>
+        <v>155.9644</v>
       </c>
       <c r="G63" t="n">
-        <v>-41100.00440000001</v>
+        <v>-44025.22300000001</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>214</v>
+      </c>
+      <c r="K63" t="n">
+        <v>214</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2670,32 +2784,40 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C64" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D64" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E64" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F64" t="n">
         <v>2</v>
       </c>
       <c r="G64" t="n">
-        <v>-41098.00440000001</v>
+        <v>-44023.22300000001</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>214</v>
+      </c>
+      <c r="K64" t="n">
+        <v>214</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2706,32 +2828,40 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C65" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D65" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E65" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F65" t="n">
-        <v>824.9999</v>
+        <v>818.98</v>
       </c>
       <c r="G65" t="n">
-        <v>-41098.00440000001</v>
+        <v>-44842.20300000001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>215</v>
+      </c>
+      <c r="K65" t="n">
+        <v>214</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2742,32 +2872,40 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C66" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D66" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E66" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F66" t="n">
-        <v>4708.2894</v>
+        <v>1005</v>
       </c>
       <c r="G66" t="n">
-        <v>-36389.715</v>
+        <v>-44842.20300000001</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>214</v>
+      </c>
+      <c r="K66" t="n">
+        <v>214</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2778,32 +2916,40 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C67" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D67" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E67" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F67" t="n">
-        <v>1824.2619</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>-38213.9769</v>
+        <v>-44841.20300000001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>214</v>
+      </c>
+      <c r="K67" t="n">
+        <v>214</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2814,32 +2960,40 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C68" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D68" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E68" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F68" t="n">
-        <v>513</v>
+        <v>47.8177</v>
       </c>
       <c r="G68" t="n">
-        <v>-38213.9769</v>
+        <v>-44841.20300000001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>215</v>
+      </c>
+      <c r="K68" t="n">
+        <v>214</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2850,32 +3004,40 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C69" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D69" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E69" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F69" t="n">
-        <v>4521</v>
+        <v>47.8177</v>
       </c>
       <c r="G69" t="n">
-        <v>-33692.9769</v>
+        <v>-44889.02070000001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>215</v>
+      </c>
+      <c r="K69" t="n">
+        <v>214</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2886,22 +3048,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C70" t="n">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D70" t="n">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E70" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F70" t="n">
-        <v>10908.4202</v>
+        <v>3009.4076</v>
       </c>
       <c r="G70" t="n">
-        <v>-22784.5567</v>
+        <v>-41879.61310000001</v>
       </c>
       <c r="H70" t="n">
         <v>1</v>
@@ -2910,12 +3072,16 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="K70" t="n">
-        <v>219</v>
-      </c>
-      <c r="L70" t="inlineStr"/>
+        <v>214</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2926,36 +3092,38 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C71" t="n">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D71" t="n">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E71" t="n">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F71" t="n">
-        <v>12095.0172</v>
+        <v>2312</v>
       </c>
       <c r="G71" t="n">
-        <v>-22784.5567</v>
+        <v>-39567.61310000001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>216</v>
+      </c>
       <c r="K71" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M71" t="n">
@@ -2968,38 +3136,36 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C72" t="n">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D72" t="n">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E72" t="n">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F72" t="n">
-        <v>69.23869999999999</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>-22784.5567</v>
+        <v>-39566.61310000001</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>222</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M72" t="n">
@@ -3012,36 +3178,38 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C73" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D73" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E73" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
+        <v>1168.5604</v>
       </c>
       <c r="G73" t="n">
-        <v>-22782.5567</v>
+        <v>-39566.61310000001</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>222</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>222</v>
-      </c>
-      <c r="L73" t="inlineStr"/>
+        <v>214</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3052,22 +3220,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C74" t="n">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D74" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E74" t="n">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F74" t="n">
-        <v>1763.8699</v>
+        <v>1066</v>
       </c>
       <c r="G74" t="n">
-        <v>-22782.5567</v>
+        <v>-40632.61310000001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3077,11 +3245,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M74" t="n">
@@ -3094,36 +3262,38 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C75" t="n">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D75" t="n">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E75" t="n">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F75" t="n">
-        <v>1920.2886</v>
+        <v>999.934</v>
       </c>
       <c r="G75" t="n">
-        <v>-22782.5567</v>
+        <v>-39632.67910000001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>216</v>
+      </c>
       <c r="K75" t="n">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M75" t="n">
@@ -3136,32 +3306,40 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C76" t="n">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D76" t="n">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E76" t="n">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F76" t="n">
-        <v>5680.4466</v>
+        <v>249.6747</v>
       </c>
       <c r="G76" t="n">
-        <v>-22782.5567</v>
+        <v>-39383.00440000001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>217</v>
+      </c>
+      <c r="K76" t="n">
+        <v>214</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3172,22 +3350,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C77" t="n">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D77" t="n">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E77" t="n">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F77" t="n">
-        <v>2150.1606</v>
+        <v>3</v>
       </c>
       <c r="G77" t="n">
-        <v>-20632.3961</v>
+        <v>-39380.00440000001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3196,8 +3374,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>214</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3208,22 +3392,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C78" t="n">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D78" t="n">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E78" t="n">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F78" t="n">
-        <v>1264.8794</v>
+        <v>736.881</v>
       </c>
       <c r="G78" t="n">
-        <v>-20632.3961</v>
+        <v>-39380.00440000001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3232,8 +3416,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>214</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3244,22 +3434,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C79" t="n">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D79" t="n">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E79" t="n">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F79" t="n">
-        <v>6374.1517</v>
+        <v>3100.6918</v>
       </c>
       <c r="G79" t="n">
-        <v>-20632.3961</v>
+        <v>-39380.00440000001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3268,8 +3458,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>214</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3280,22 +3476,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C80" t="n">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D80" t="n">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E80" t="n">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F80" t="n">
-        <v>1621</v>
+        <v>2000</v>
       </c>
       <c r="G80" t="n">
-        <v>-20632.3961</v>
+        <v>-41380.00440000001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3304,8 +3500,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>214</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3316,22 +3518,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C81" t="n">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D81" t="n">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E81" t="n">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F81" t="n">
-        <v>319.0656</v>
+        <v>1000</v>
       </c>
       <c r="G81" t="n">
-        <v>-20951.4617</v>
+        <v>-41380.00440000001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3340,8 +3542,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>214</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3352,22 +3560,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C82" t="n">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D82" t="n">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E82" t="n">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F82" t="n">
-        <v>2</v>
+        <v>423</v>
       </c>
       <c r="G82" t="n">
-        <v>-20949.4617</v>
+        <v>-41380.00440000001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3376,8 +3584,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>214</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3388,22 +3602,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C83" t="n">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D83" t="n">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E83" t="n">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F83" t="n">
-        <v>500</v>
+        <v>577</v>
       </c>
       <c r="G83" t="n">
-        <v>-20949.4617</v>
+        <v>-41380.00440000001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3412,8 +3626,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>214</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3424,22 +3644,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C84" t="n">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D84" t="n">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E84" t="n">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F84" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G84" t="n">
-        <v>-20949.4617</v>
+        <v>-42380.00440000001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3448,8 +3668,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>214</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3460,22 +3686,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C85" t="n">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D85" t="n">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E85" t="n">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F85" t="n">
-        <v>1770</v>
+        <v>1290</v>
       </c>
       <c r="G85" t="n">
-        <v>-19179.4617</v>
+        <v>-41090.00440000001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3484,8 +3710,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>214</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3496,22 +3728,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C86" t="n">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D86" t="n">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E86" t="n">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="F86" t="n">
-        <v>600</v>
+        <v>43838.5591</v>
       </c>
       <c r="G86" t="n">
-        <v>-18579.4617</v>
+        <v>-41090.00440000001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3520,8 +3752,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>214</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3532,22 +3770,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C87" t="n">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D87" t="n">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E87" t="n">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F87" t="n">
-        <v>22999.5796</v>
+        <v>1233</v>
       </c>
       <c r="G87" t="n">
-        <v>-18579.4617</v>
+        <v>-42323.00440000001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3556,8 +3794,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>214</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3568,22 +3812,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C88" t="n">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D88" t="n">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E88" t="n">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F88" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G88" t="n">
-        <v>-18579.4617</v>
+        <v>-42333.00440000001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3592,8 +3836,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>214</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3604,22 +3854,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C89" t="n">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D89" t="n">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="E89" t="n">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F89" t="n">
-        <v>60</v>
+        <v>3.9825</v>
       </c>
       <c r="G89" t="n">
-        <v>-18579.4617</v>
+        <v>-42333.00440000001</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3628,8 +3878,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>214</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3640,22 +3896,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C90" t="n">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D90" t="n">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E90" t="n">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F90" t="n">
-        <v>328</v>
+        <v>1233</v>
       </c>
       <c r="G90" t="n">
-        <v>-18579.4617</v>
+        <v>-41100.00440000001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3664,8 +3920,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>214</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3676,22 +3938,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C91" t="n">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D91" t="n">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E91" t="n">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F91" t="n">
-        <v>170</v>
+        <v>1361</v>
       </c>
       <c r="G91" t="n">
-        <v>-18579.4617</v>
+        <v>-41100.00440000001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3700,8 +3962,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>214</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3712,22 +3980,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C92" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D92" t="n">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="E92" t="n">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F92" t="n">
-        <v>440.3288</v>
+        <v>15.1467</v>
       </c>
       <c r="G92" t="n">
-        <v>-18139.1329</v>
+        <v>-41100.00440000001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3736,8 +4004,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>214</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3748,22 +4022,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C93" t="n">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D93" t="n">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E93" t="n">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F93" t="n">
-        <v>6626.8235</v>
+        <v>2</v>
       </c>
       <c r="G93" t="n">
-        <v>-11512.3094</v>
+        <v>-41098.00440000001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3772,8 +4046,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>214</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3784,22 +4064,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C94" t="n">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D94" t="n">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="E94" t="n">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F94" t="n">
-        <v>540</v>
+        <v>824.9999</v>
       </c>
       <c r="G94" t="n">
-        <v>-10972.3094</v>
+        <v>-41098.00440000001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3808,8 +4088,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>214</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3820,22 +4106,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C95" t="n">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D95" t="n">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="E95" t="n">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="F95" t="n">
-        <v>13396.5674</v>
+        <v>4708.2894</v>
       </c>
       <c r="G95" t="n">
-        <v>2424.257999999996</v>
+        <v>-36389.715</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3844,8 +4130,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>214</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3856,22 +4148,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C96" t="n">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="D96" t="n">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="E96" t="n">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="F96" t="n">
-        <v>6774.8007</v>
+        <v>1824.2619</v>
       </c>
       <c r="G96" t="n">
-        <v>9199.058699999996</v>
+        <v>-38213.9769</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3880,8 +4172,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>214</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3892,22 +4190,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="C97" t="n">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="D97" t="n">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="E97" t="n">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="F97" t="n">
-        <v>17719.7475</v>
+        <v>513</v>
       </c>
       <c r="G97" t="n">
-        <v>26918.8062</v>
+        <v>-38213.9769</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3916,8 +4214,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>214</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3928,32 +4232,38 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C98" t="n">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D98" t="n">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="E98" t="n">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F98" t="n">
-        <v>94.60680000000001</v>
+        <v>4521</v>
       </c>
       <c r="G98" t="n">
-        <v>26918.8062</v>
+        <v>-33692.9769</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>214</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3964,32 +4274,38 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="C99" t="n">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="D99" t="n">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E99" t="n">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="F99" t="n">
-        <v>11287.8703</v>
+        <v>10908.4202</v>
       </c>
       <c r="G99" t="n">
-        <v>26918.8062</v>
+        <v>-22784.5567</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>214</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4000,32 +4316,38 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C100" t="n">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="D100" t="n">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="E100" t="n">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="F100" t="n">
-        <v>11320.0661</v>
+        <v>12095.0172</v>
       </c>
       <c r="G100" t="n">
-        <v>15598.7401</v>
+        <v>-22784.5567</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>214</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4036,32 +4358,38 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C101" t="n">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="D101" t="n">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E101" t="n">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="F101" t="n">
-        <v>1772</v>
+        <v>69.23869999999999</v>
       </c>
       <c r="G101" t="n">
-        <v>17370.7401</v>
+        <v>-22784.5567</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>214</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4072,36 +4400,1244 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
+        <v>223</v>
+      </c>
+      <c r="C102" t="n">
+        <v>223</v>
+      </c>
+      <c r="D102" t="n">
+        <v>223</v>
+      </c>
+      <c r="E102" t="n">
+        <v>223</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-22782.5567</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>214</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>223</v>
+      </c>
+      <c r="C103" t="n">
+        <v>223</v>
+      </c>
+      <c r="D103" t="n">
+        <v>223</v>
+      </c>
+      <c r="E103" t="n">
+        <v>223</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1763.8699</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-22782.5567</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>214</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>223</v>
+      </c>
+      <c r="C104" t="n">
+        <v>223</v>
+      </c>
+      <c r="D104" t="n">
+        <v>223</v>
+      </c>
+      <c r="E104" t="n">
+        <v>223</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1920.2886</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-22782.5567</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>214</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>223</v>
+      </c>
+      <c r="C105" t="n">
+        <v>223</v>
+      </c>
+      <c r="D105" t="n">
+        <v>223</v>
+      </c>
+      <c r="E105" t="n">
+        <v>223</v>
+      </c>
+      <c r="F105" t="n">
+        <v>5680.4466</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-22782.5567</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>214</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>224</v>
+      </c>
+      <c r="C106" t="n">
+        <v>224</v>
+      </c>
+      <c r="D106" t="n">
+        <v>224</v>
+      </c>
+      <c r="E106" t="n">
+        <v>224</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2150.1606</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-20632.3961</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>214</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>224</v>
+      </c>
+      <c r="C107" t="n">
+        <v>224</v>
+      </c>
+      <c r="D107" t="n">
+        <v>224</v>
+      </c>
+      <c r="E107" t="n">
+        <v>224</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1264.8794</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-20632.3961</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>214</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>224</v>
+      </c>
+      <c r="C108" t="n">
+        <v>224</v>
+      </c>
+      <c r="D108" t="n">
+        <v>224</v>
+      </c>
+      <c r="E108" t="n">
+        <v>224</v>
+      </c>
+      <c r="F108" t="n">
+        <v>6374.1517</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-20632.3961</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>214</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>224</v>
+      </c>
+      <c r="C109" t="n">
+        <v>224</v>
+      </c>
+      <c r="D109" t="n">
+        <v>224</v>
+      </c>
+      <c r="E109" t="n">
+        <v>224</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1621</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-20632.3961</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>214</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>224</v>
+      </c>
+      <c r="C110" t="n">
+        <v>223</v>
+      </c>
+      <c r="D110" t="n">
+        <v>224</v>
+      </c>
+      <c r="E110" t="n">
+        <v>223</v>
+      </c>
+      <c r="F110" t="n">
+        <v>319.0656</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-20951.4617</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>214</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>224</v>
+      </c>
+      <c r="C111" t="n">
+        <v>224</v>
+      </c>
+      <c r="D111" t="n">
+        <v>224</v>
+      </c>
+      <c r="E111" t="n">
+        <v>224</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-20949.4617</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>214</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>224</v>
+      </c>
+      <c r="C112" t="n">
+        <v>224</v>
+      </c>
+      <c r="D112" t="n">
+        <v>224</v>
+      </c>
+      <c r="E112" t="n">
+        <v>224</v>
+      </c>
+      <c r="F112" t="n">
+        <v>500</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-20949.4617</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>214</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>224</v>
+      </c>
+      <c r="C113" t="n">
+        <v>224</v>
+      </c>
+      <c r="D113" t="n">
+        <v>224</v>
+      </c>
+      <c r="E113" t="n">
+        <v>224</v>
+      </c>
+      <c r="F113" t="n">
+        <v>500</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-20949.4617</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>214</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>224</v>
+      </c>
+      <c r="C114" t="n">
+        <v>225</v>
+      </c>
+      <c r="D114" t="n">
+        <v>225</v>
+      </c>
+      <c r="E114" t="n">
+        <v>224</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1770</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-19179.4617</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>214</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>225</v>
+      </c>
+      <c r="C115" t="n">
+        <v>226</v>
+      </c>
+      <c r="D115" t="n">
+        <v>226</v>
+      </c>
+      <c r="E115" t="n">
+        <v>225</v>
+      </c>
+      <c r="F115" t="n">
+        <v>600</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-18579.4617</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>214</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>226</v>
+      </c>
+      <c r="C116" t="n">
+        <v>226</v>
+      </c>
+      <c r="D116" t="n">
+        <v>226</v>
+      </c>
+      <c r="E116" t="n">
+        <v>226</v>
+      </c>
+      <c r="F116" t="n">
+        <v>22999.5796</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-18579.4617</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>214</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>226</v>
+      </c>
+      <c r="C117" t="n">
+        <v>226</v>
+      </c>
+      <c r="D117" t="n">
+        <v>226</v>
+      </c>
+      <c r="E117" t="n">
+        <v>226</v>
+      </c>
+      <c r="F117" t="n">
+        <v>12</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-18579.4617</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>214</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>226</v>
+      </c>
+      <c r="C118" t="n">
+        <v>226</v>
+      </c>
+      <c r="D118" t="n">
+        <v>226</v>
+      </c>
+      <c r="E118" t="n">
+        <v>226</v>
+      </c>
+      <c r="F118" t="n">
+        <v>60</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-18579.4617</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>214</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>226</v>
+      </c>
+      <c r="C119" t="n">
+        <v>226</v>
+      </c>
+      <c r="D119" t="n">
+        <v>226</v>
+      </c>
+      <c r="E119" t="n">
+        <v>226</v>
+      </c>
+      <c r="F119" t="n">
+        <v>328</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-18579.4617</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>214</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>226</v>
+      </c>
+      <c r="C120" t="n">
+        <v>226</v>
+      </c>
+      <c r="D120" t="n">
+        <v>226</v>
+      </c>
+      <c r="E120" t="n">
+        <v>226</v>
+      </c>
+      <c r="F120" t="n">
+        <v>170</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-18579.4617</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>214</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>226</v>
+      </c>
+      <c r="C121" t="n">
+        <v>227</v>
+      </c>
+      <c r="D121" t="n">
+        <v>227</v>
+      </c>
+      <c r="E121" t="n">
+        <v>226</v>
+      </c>
+      <c r="F121" t="n">
+        <v>440.3288</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-18139.1329</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>214</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>227</v>
+      </c>
+      <c r="C122" t="n">
+        <v>228</v>
+      </c>
+      <c r="D122" t="n">
+        <v>228</v>
+      </c>
+      <c r="E122" t="n">
+        <v>226</v>
+      </c>
+      <c r="F122" t="n">
+        <v>6626.8235</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-11512.3094</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>214</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>228</v>
+      </c>
+      <c r="C123" t="n">
+        <v>229</v>
+      </c>
+      <c r="D123" t="n">
+        <v>229</v>
+      </c>
+      <c r="E123" t="n">
+        <v>228</v>
+      </c>
+      <c r="F123" t="n">
+        <v>540</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-10972.3094</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>214</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>229</v>
+      </c>
+      <c r="C124" t="n">
+        <v>230</v>
+      </c>
+      <c r="D124" t="n">
+        <v>230</v>
+      </c>
+      <c r="E124" t="n">
+        <v>229</v>
+      </c>
+      <c r="F124" t="n">
+        <v>13396.5674</v>
+      </c>
+      <c r="G124" t="n">
+        <v>2424.257999999996</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>214</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>230</v>
+      </c>
+      <c r="C125" t="n">
+        <v>231</v>
+      </c>
+      <c r="D125" t="n">
+        <v>231</v>
+      </c>
+      <c r="E125" t="n">
+        <v>229</v>
+      </c>
+      <c r="F125" t="n">
+        <v>6774.8007</v>
+      </c>
+      <c r="G125" t="n">
+        <v>9199.058699999996</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>214</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>232</v>
+      </c>
+      <c r="C126" t="n">
         <v>234</v>
       </c>
-      <c r="C102" t="n">
+      <c r="D126" t="n">
         <v>234</v>
       </c>
-      <c r="D102" t="n">
+      <c r="E126" t="n">
+        <v>232</v>
+      </c>
+      <c r="F126" t="n">
+        <v>17719.7475</v>
+      </c>
+      <c r="G126" t="n">
+        <v>26918.8062</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>214</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
         <v>234</v>
       </c>
-      <c r="E102" t="n">
+      <c r="C127" t="n">
         <v>234</v>
       </c>
-      <c r="F102" t="n">
+      <c r="D127" t="n">
+        <v>234</v>
+      </c>
+      <c r="E127" t="n">
+        <v>234</v>
+      </c>
+      <c r="F127" t="n">
+        <v>94.60680000000001</v>
+      </c>
+      <c r="G127" t="n">
+        <v>26918.8062</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>214</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>234</v>
+      </c>
+      <c r="C128" t="n">
+        <v>234</v>
+      </c>
+      <c r="D128" t="n">
+        <v>234</v>
+      </c>
+      <c r="E128" t="n">
+        <v>232</v>
+      </c>
+      <c r="F128" t="n">
+        <v>11287.8703</v>
+      </c>
+      <c r="G128" t="n">
+        <v>26918.8062</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>214</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1.088457943925234</v>
+      </c>
+      <c r="N128" t="n">
+        <v>1.028436018957346</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>233</v>
+      </c>
+      <c r="C129" t="n">
+        <v>233</v>
+      </c>
+      <c r="D129" t="n">
+        <v>233</v>
+      </c>
+      <c r="E129" t="n">
+        <v>231</v>
+      </c>
+      <c r="F129" t="n">
+        <v>11320.0661</v>
+      </c>
+      <c r="G129" t="n">
+        <v>15598.7401</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>234</v>
+      </c>
+      <c r="C130" t="n">
+        <v>234</v>
+      </c>
+      <c r="D130" t="n">
+        <v>234</v>
+      </c>
+      <c r="E130" t="n">
+        <v>234</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1772</v>
+      </c>
+      <c r="G130" t="n">
+        <v>17370.7401</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>234</v>
+      </c>
+      <c r="C131" t="n">
+        <v>234</v>
+      </c>
+      <c r="D131" t="n">
+        <v>234</v>
+      </c>
+      <c r="E131" t="n">
+        <v>234</v>
+      </c>
+      <c r="F131" t="n">
         <v>5543.5598</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G131" t="n">
         <v>17370.7401</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-19 BackTest INS.xlsx
+++ b/BackTest/2019-10-19 BackTest INS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N131"/>
+  <dimension ref="A1:M131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,19 @@
         <v>-30708.5653</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>213</v>
+      </c>
+      <c r="J26" t="n">
+        <v>213</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1280,23 @@
         <v>-30445.5653</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>213</v>
+      </c>
+      <c r="J27" t="n">
+        <v>213</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1321,23 @@
         <v>-30443.5653</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>214</v>
+      </c>
+      <c r="J28" t="n">
+        <v>213</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1362,23 @@
         <v>-30453.5653</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>215</v>
+      </c>
+      <c r="J29" t="n">
+        <v>213</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1403,23 @@
         <v>-30453.5653</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>214</v>
+      </c>
+      <c r="J30" t="n">
+        <v>213</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1444,23 @@
         <v>-30453.5653</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>214</v>
+      </c>
+      <c r="J31" t="n">
+        <v>213</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1485,23 @@
         <v>-31782.4868</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>214</v>
+      </c>
+      <c r="J32" t="n">
+        <v>213</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1526,23 @@
         <v>-31782.4868</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>213</v>
+      </c>
+      <c r="J33" t="n">
+        <v>213</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1567,23 @@
         <v>-31275.4868</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>213</v>
+      </c>
+      <c r="J34" t="n">
+        <v>213</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1608,23 @@
         <v>-31671.7771</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>214</v>
+      </c>
+      <c r="J35" t="n">
+        <v>213</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1649,23 @@
         <v>-54776.3663</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>213</v>
+      </c>
+      <c r="J36" t="n">
+        <v>213</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1690,23 @@
         <v>-50452.856</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>211</v>
+      </c>
+      <c r="J37" t="n">
+        <v>213</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1731,23 @@
         <v>-50452.856</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>213</v>
+      </c>
+      <c r="J38" t="n">
+        <v>213</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1774,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>213</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1813,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>213</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1852,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>213</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1891,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>213</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1930,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>213</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1969,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>213</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +2008,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>213</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +2047,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>213</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +2084,23 @@
         <v>-43174.93870000001</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+        <v>214</v>
+      </c>
+      <c r="J47" t="n">
+        <v>213</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +2127,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>213</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2148,22 +2164,21 @@
         <v>-43610.22300000001</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>214</v>
-      </c>
-      <c r="K49" t="n">
-        <v>214</v>
-      </c>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>213</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2190,22 +2205,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>214</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>213</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2230,26 +2242,21 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>211</v>
-      </c>
-      <c r="K51" t="n">
-        <v>214</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+        <v>213</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2274,26 +2281,23 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="J52" t="n">
-        <v>214</v>
-      </c>
-      <c r="K52" t="n">
-        <v>214</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>213</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2318,26 +2322,23 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="J53" t="n">
-        <v>214</v>
-      </c>
-      <c r="K53" t="n">
-        <v>214</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>213</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2362,26 +2363,23 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="J54" t="n">
-        <v>214</v>
-      </c>
-      <c r="K54" t="n">
-        <v>214</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>213</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2406,26 +2404,23 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="J55" t="n">
-        <v>214</v>
-      </c>
-      <c r="K55" t="n">
-        <v>214</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>213</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2450,26 +2445,23 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="J56" t="n">
-        <v>214</v>
-      </c>
-      <c r="K56" t="n">
-        <v>214</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+        <v>213</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2494,26 +2486,23 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="J57" t="n">
-        <v>214</v>
-      </c>
-      <c r="K57" t="n">
-        <v>214</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>213</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2538,26 +2527,23 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="J58" t="n">
-        <v>214</v>
-      </c>
-      <c r="K58" t="n">
-        <v>214</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>213</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2582,26 +2568,23 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="J59" t="n">
-        <v>214</v>
-      </c>
-      <c r="K59" t="n">
-        <v>214</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+        <v>213</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2626,26 +2609,23 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="J60" t="n">
-        <v>214</v>
-      </c>
-      <c r="K60" t="n">
-        <v>214</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+        <v>213</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2670,26 +2650,23 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="J61" t="n">
-        <v>214</v>
-      </c>
-      <c r="K61" t="n">
-        <v>214</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+        <v>213</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2714,26 +2691,23 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="J62" t="n">
-        <v>214</v>
-      </c>
-      <c r="K62" t="n">
-        <v>214</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+        <v>213</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2758,26 +2732,23 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="J63" t="n">
-        <v>214</v>
-      </c>
-      <c r="K63" t="n">
-        <v>214</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>213</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2802,26 +2773,23 @@
         <v>-44023.22300000001</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="J64" t="n">
-        <v>214</v>
-      </c>
-      <c r="K64" t="n">
-        <v>214</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>213</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2846,26 +2814,21 @@
         <v>-44842.20300000001</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>215</v>
-      </c>
-      <c r="K65" t="n">
-        <v>214</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>213</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2890,26 +2853,21 @@
         <v>-44842.20300000001</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>214</v>
-      </c>
-      <c r="K66" t="n">
-        <v>214</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+        <v>213</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2934,26 +2892,21 @@
         <v>-44841.20300000001</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>214</v>
-      </c>
-      <c r="K67" t="n">
-        <v>214</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+        <v>213</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2978,26 +2931,21 @@
         <v>-44841.20300000001</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>215</v>
-      </c>
-      <c r="K68" t="n">
-        <v>214</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+        <v>213</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3022,26 +2970,21 @@
         <v>-44889.02070000001</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>215</v>
-      </c>
-      <c r="K69" t="n">
-        <v>214</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>213</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3066,26 +3009,23 @@
         <v>-41879.61310000001</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="J70" t="n">
-        <v>214</v>
-      </c>
-      <c r="K70" t="n">
-        <v>214</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>213</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3110,26 +3050,23 @@
         <v>-39567.61310000001</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="J71" t="n">
-        <v>216</v>
-      </c>
-      <c r="K71" t="n">
-        <v>214</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+        <v>213</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3154,24 +3091,23 @@
         <v>-39566.61310000001</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>214</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>217</v>
+      </c>
+      <c r="J72" t="n">
+        <v>213</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3198,22 +3134,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>214</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>213</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3238,24 +3171,23 @@
         <v>-40632.61310000001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>214</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>218</v>
+      </c>
+      <c r="J74" t="n">
+        <v>213</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3280,26 +3212,21 @@
         <v>-39632.67910000001</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>216</v>
-      </c>
-      <c r="K75" t="n">
-        <v>214</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+        <v>213</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3324,26 +3251,23 @@
         <v>-39383.00440000001</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="J76" t="n">
-        <v>217</v>
-      </c>
-      <c r="K76" t="n">
-        <v>214</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+        <v>213</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3368,24 +3292,23 @@
         <v>-39380.00440000001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>214</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+        <v>219</v>
+      </c>
+      <c r="J77" t="n">
+        <v>213</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3412,22 +3335,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>214</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>213</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3454,22 +3374,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>214</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>213</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3496,22 +3413,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>214</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>213</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3538,22 +3452,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>214</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>213</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3580,22 +3491,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>214</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>213</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3620,24 +3528,23 @@
         <v>-41380.00440000001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>214</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+        <v>219</v>
+      </c>
+      <c r="J83" t="n">
+        <v>213</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3662,24 +3569,23 @@
         <v>-42380.00440000001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>214</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>219</v>
+      </c>
+      <c r="J84" t="n">
+        <v>213</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3704,24 +3610,23 @@
         <v>-41090.00440000001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>214</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+        <v>218</v>
+      </c>
+      <c r="J85" t="n">
+        <v>213</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3746,24 +3651,23 @@
         <v>-41090.00440000001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>214</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>219</v>
+      </c>
+      <c r="J86" t="n">
+        <v>213</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3790,22 +3694,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>214</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>213</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3832,22 +3733,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>214</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>213</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3874,22 +3772,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>214</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>213</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3916,22 +3811,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>214</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>213</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3958,22 +3850,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>214</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>213</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4000,22 +3889,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>214</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>213</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4042,22 +3928,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>214</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>213</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4082,24 +3965,23 @@
         <v>-41098.00440000001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>214</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+        <v>218</v>
+      </c>
+      <c r="J94" t="n">
+        <v>213</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4124,24 +4006,23 @@
         <v>-36389.715</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>214</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+        <v>218</v>
+      </c>
+      <c r="J95" t="n">
+        <v>213</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4168,22 +4049,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>214</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>213</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4208,24 +4086,23 @@
         <v>-38213.9769</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>214</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>218</v>
+      </c>
+      <c r="J97" t="n">
+        <v>213</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4250,24 +4127,23 @@
         <v>-33692.9769</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>214</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+        <v>218</v>
+      </c>
+      <c r="J98" t="n">
+        <v>213</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4292,24 +4168,23 @@
         <v>-22784.5567</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>214</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+        <v>219</v>
+      </c>
+      <c r="J99" t="n">
+        <v>213</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4336,22 +4211,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>214</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>213</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4378,22 +4250,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>214</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>213</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4420,22 +4289,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>214</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>213</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4460,24 +4326,23 @@
         <v>-22782.5567</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>214</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+        <v>223</v>
+      </c>
+      <c r="J103" t="n">
+        <v>213</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4504,22 +4369,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>214</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>213</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4546,22 +4408,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>214</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>213</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4588,22 +4447,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>214</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>213</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4630,22 +4486,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>214</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>213</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4672,22 +4525,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>214</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>213</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4714,22 +4564,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>214</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>213</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4756,22 +4603,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>214</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>213</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4798,22 +4642,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>214</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>213</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4840,22 +4681,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>214</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>213</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4882,22 +4720,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>214</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>213</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4924,22 +4759,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>214</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>213</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4966,22 +4798,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>214</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>213</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5008,22 +4837,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>214</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>213</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5050,22 +4876,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>214</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>213</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5092,22 +4915,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>214</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>213</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5134,22 +4954,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>214</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>213</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5176,22 +4993,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>214</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>213</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5218,22 +5032,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>214</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>213</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5260,22 +5071,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>214</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>213</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5300,24 +5108,23 @@
         <v>-10972.3094</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>214</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>213</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1.070117370892019</v>
       </c>
       <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+        <v>1.014084507042254</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5344,22 +5151,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>214</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5384,24 +5182,15 @@
         <v>9199.058699999996</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>214</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5426,24 +5215,15 @@
         <v>26918.8062</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>214</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5468,24 +5248,15 @@
         <v>26918.8062</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>214</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5510,26 +5281,15 @@
         <v>26918.8062</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>214</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1.088457943925234</v>
-      </c>
-      <c r="N128" t="n">
-        <v>1.028436018957346</v>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5554,18 +5314,15 @@
         <v>15598.7401</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5590,18 +5347,15 @@
         <v>17370.7401</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5626,20 +5380,17 @@
         <v>17370.7401</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest INS.xlsx
+++ b/BackTest/2019-10-19 BackTest INS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1243,14 +1243,10 @@
         <v>-30708.5653</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>213</v>
-      </c>
-      <c r="J26" t="n">
-        <v>213</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
@@ -1280,14 +1276,12 @@
         <v>-30445.5653</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>213</v>
       </c>
-      <c r="J27" t="n">
-        <v>213</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -1321,14 +1315,12 @@
         <v>-30443.5653</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>214</v>
       </c>
-      <c r="J28" t="n">
-        <v>213</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1362,14 +1354,12 @@
         <v>-30453.5653</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>215</v>
       </c>
-      <c r="J29" t="n">
-        <v>213</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1403,14 +1393,12 @@
         <v>-30453.5653</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>214</v>
       </c>
-      <c r="J30" t="n">
-        <v>213</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1444,14 +1432,10 @@
         <v>-30453.5653</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>214</v>
-      </c>
-      <c r="J31" t="n">
-        <v>213</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1485,14 +1469,12 @@
         <v>-31782.4868</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>214</v>
       </c>
-      <c r="J32" t="n">
-        <v>213</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1526,14 +1508,12 @@
         <v>-31782.4868</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>213</v>
       </c>
-      <c r="J33" t="n">
-        <v>213</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1567,14 +1547,12 @@
         <v>-31275.4868</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>213</v>
       </c>
-      <c r="J34" t="n">
-        <v>213</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1608,14 +1586,12 @@
         <v>-31671.7771</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>214</v>
       </c>
-      <c r="J35" t="n">
-        <v>213</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1649,14 +1625,12 @@
         <v>-54776.3663</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>213</v>
       </c>
-      <c r="J36" t="n">
-        <v>213</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1690,14 +1664,12 @@
         <v>-50452.856</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>211</v>
       </c>
-      <c r="J37" t="n">
-        <v>213</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1731,14 +1703,12 @@
         <v>-50452.856</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>213</v>
       </c>
-      <c r="J38" t="n">
-        <v>213</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1772,12 +1742,12 @@
         <v>-43694.122</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
         <v>213</v>
       </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1811,12 +1781,12 @@
         <v>-43694.122</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>213</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>214</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1850,12 +1820,12 @@
         <v>-43694.122</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>213</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>214</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1889,12 +1859,12 @@
         <v>-43694.122</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>213</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>214</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1928,12 +1898,12 @@
         <v>-43689.122</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>213</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>214</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1967,12 +1937,12 @@
         <v>-43689.122</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>213</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>215</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2006,12 +1976,12 @@
         <v>-42072.2939</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>213</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>215</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2045,12 +2015,12 @@
         <v>-43176.93870000001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>213</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>216</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2084,14 +2054,12 @@
         <v>-43174.93870000001</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>214</v>
       </c>
-      <c r="J47" t="n">
-        <v>213</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2125,12 +2093,12 @@
         <v>-43610.22300000001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>213</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>215</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2164,12 +2132,12 @@
         <v>-43610.22300000001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>213</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>214</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2203,12 +2171,12 @@
         <v>-44026.22300000001</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>213</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>214</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2242,12 +2210,12 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>213</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>211</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2281,14 +2249,12 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>214</v>
       </c>
-      <c r="J52" t="n">
-        <v>213</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2322,14 +2288,12 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>214</v>
       </c>
-      <c r="J53" t="n">
-        <v>213</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2363,14 +2327,12 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>214</v>
       </c>
-      <c r="J54" t="n">
-        <v>213</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2404,14 +2366,12 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>214</v>
       </c>
-      <c r="J55" t="n">
-        <v>213</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2445,14 +2405,12 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>214</v>
       </c>
-      <c r="J56" t="n">
-        <v>213</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2486,14 +2444,12 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>214</v>
       </c>
-      <c r="J57" t="n">
-        <v>213</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2527,14 +2483,12 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>214</v>
       </c>
-      <c r="J58" t="n">
-        <v>213</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2568,14 +2522,12 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>214</v>
       </c>
-      <c r="J59" t="n">
-        <v>213</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2609,14 +2561,12 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>214</v>
       </c>
-      <c r="J60" t="n">
-        <v>213</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2650,14 +2600,12 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>214</v>
       </c>
-      <c r="J61" t="n">
-        <v>213</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2691,14 +2639,12 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>214</v>
       </c>
-      <c r="J62" t="n">
-        <v>213</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2732,14 +2678,12 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>214</v>
       </c>
-      <c r="J63" t="n">
-        <v>213</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2773,14 +2717,12 @@
         <v>-44023.22300000001</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>214</v>
       </c>
-      <c r="J64" t="n">
-        <v>213</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2814,12 +2756,12 @@
         <v>-44842.20300000001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>213</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>215</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2853,12 +2795,12 @@
         <v>-44842.20300000001</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>213</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>214</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2892,12 +2834,12 @@
         <v>-44841.20300000001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>213</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>214</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2931,12 +2873,12 @@
         <v>-44841.20300000001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>213</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>215</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2970,12 +2912,12 @@
         <v>-44889.02070000001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>213</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>215</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3009,14 +2951,12 @@
         <v>-41879.61310000001</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>214</v>
       </c>
-      <c r="J70" t="n">
-        <v>213</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3050,14 +2990,12 @@
         <v>-39567.61310000001</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>216</v>
       </c>
-      <c r="J71" t="n">
-        <v>213</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3091,14 +3029,12 @@
         <v>-39566.61310000001</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>217</v>
       </c>
-      <c r="J72" t="n">
-        <v>213</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3132,12 +3068,12 @@
         <v>-39566.61310000001</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>213</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>218</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3171,14 +3107,10 @@
         <v>-40632.61310000001</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>218</v>
-      </c>
-      <c r="J74" t="n">
-        <v>213</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3215,9 +3147,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>213</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3251,14 +3181,10 @@
         <v>-39383.00440000001</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>217</v>
-      </c>
-      <c r="J76" t="n">
-        <v>213</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3292,14 +3218,10 @@
         <v>-39380.00440000001</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>219</v>
-      </c>
-      <c r="J77" t="n">
-        <v>213</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3336,9 +3258,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>213</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3375,9 +3295,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>213</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3414,9 +3332,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>213</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3453,9 +3369,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>213</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3492,9 +3406,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>213</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3528,14 +3440,10 @@
         <v>-41380.00440000001</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>219</v>
-      </c>
-      <c r="J83" t="n">
-        <v>213</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3569,14 +3477,10 @@
         <v>-42380.00440000001</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="n">
-        <v>219</v>
-      </c>
-      <c r="J84" t="n">
-        <v>213</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3610,14 +3514,10 @@
         <v>-41090.00440000001</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="n">
-        <v>218</v>
-      </c>
-      <c r="J85" t="n">
-        <v>213</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3651,14 +3551,10 @@
         <v>-41090.00440000001</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>219</v>
-      </c>
-      <c r="J86" t="n">
-        <v>213</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3695,9 +3591,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>213</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3734,9 +3628,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>213</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3773,9 +3665,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>213</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3812,9 +3702,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>213</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3851,9 +3739,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>213</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3887,12 +3773,12 @@
         <v>-41100.00440000001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>213</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>217</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3926,12 +3812,12 @@
         <v>-41098.00440000001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>213</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>217</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3965,14 +3851,12 @@
         <v>-41098.00440000001</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>218</v>
       </c>
-      <c r="J94" t="n">
-        <v>213</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4006,14 +3890,12 @@
         <v>-36389.715</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>218</v>
       </c>
-      <c r="J95" t="n">
-        <v>213</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4047,12 +3929,12 @@
         <v>-38213.9769</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>213</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>219</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4086,14 +3968,12 @@
         <v>-38213.9769</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>218</v>
       </c>
-      <c r="J97" t="n">
-        <v>213</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4127,14 +4007,12 @@
         <v>-33692.9769</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>218</v>
       </c>
-      <c r="J98" t="n">
-        <v>213</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4168,14 +4046,12 @@
         <v>-22784.5567</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>219</v>
       </c>
-      <c r="J99" t="n">
-        <v>213</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4209,12 +4085,12 @@
         <v>-22784.5567</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>213</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>222</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4251,9 +4127,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>213</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4290,9 +4164,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>213</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4326,14 +4198,10 @@
         <v>-22782.5567</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>223</v>
-      </c>
-      <c r="J103" t="n">
-        <v>213</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4370,9 +4238,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>213</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4409,9 +4275,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>213</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4448,9 +4312,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>213</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4487,9 +4349,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>213</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4526,9 +4386,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>213</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4565,9 +4423,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>213</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4604,9 +4460,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>213</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4643,9 +4497,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>213</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4682,9 +4534,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>213</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4721,9 +4571,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>213</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4760,9 +4608,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>213</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4799,9 +4645,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>213</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4838,9 +4682,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>213</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4877,9 +4719,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>213</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4916,9 +4756,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>213</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4955,9 +4793,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>213</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4994,9 +4830,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>213</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5033,9 +4867,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>213</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5072,9 +4904,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>213</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5108,23 +4938,19 @@
         <v>-10972.3094</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>213</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L123" t="n">
-        <v>1.070117370892019</v>
-      </c>
-      <c r="M123" t="n">
-        <v>1.014084507042254</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5153,7 +4979,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5182,11 +5012,15 @@
         <v>9199.058699999996</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5215,11 +5049,15 @@
         <v>26918.8062</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5248,11 +5086,15 @@
         <v>26918.8062</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5281,11 +5123,15 @@
         <v>26918.8062</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5314,14 +5160,16 @@
         <v>15598.7401</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
@@ -5347,7 +5195,7 @@
         <v>17370.7401</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5380,7 +5228,7 @@
         <v>17370.7401</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5391,6 +5239,6 @@
       <c r="M131" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest INS.xlsx
+++ b/BackTest/2019-10-19 BackTest INS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1276,17 +1276,11 @@
         <v>-30445.5653</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>213</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1315,17 +1309,11 @@
         <v>-30443.5653</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>214</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1354,17 +1342,11 @@
         <v>-30453.5653</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>215</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1393,17 +1375,11 @@
         <v>-30453.5653</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>214</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1436,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1469,17 +1441,11 @@
         <v>-31782.4868</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>214</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1508,17 +1474,11 @@
         <v>-31782.4868</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>213</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1547,17 +1507,11 @@
         <v>-31275.4868</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>213</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1591,12 +1545,10 @@
       <c r="I35" t="n">
         <v>214</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="n">
+        <v>214</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1625,15 +1577,15 @@
         <v>-54776.3663</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>213</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>214</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -1664,12 +1616,12 @@
         <v>-50452.856</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>211</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>214</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1708,7 +1660,9 @@
       <c r="I38" t="n">
         <v>213</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>214</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1747,7 +1701,9 @@
       <c r="I39" t="n">
         <v>213</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>214</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1786,7 +1742,9 @@
       <c r="I40" t="n">
         <v>214</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>214</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1825,7 +1783,9 @@
       <c r="I41" t="n">
         <v>214</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>214</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1859,12 +1819,12 @@
         <v>-43694.122</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>214</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>214</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1903,7 +1863,9 @@
       <c r="I43" t="n">
         <v>214</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>214</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1937,12 +1899,12 @@
         <v>-43689.122</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>215</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>214</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1976,12 +1938,12 @@
         <v>-42072.2939</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>215</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>214</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2015,12 +1977,12 @@
         <v>-43176.93870000001</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>216</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>214</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2054,12 +2016,12 @@
         <v>-43174.93870000001</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>214</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>214</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2093,12 +2055,12 @@
         <v>-43610.22300000001</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>215</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>214</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2132,12 +2094,12 @@
         <v>-43610.22300000001</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>214</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>214</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2171,12 +2133,12 @@
         <v>-44026.22300000001</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>214</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>214</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2215,7 +2177,9 @@
       <c r="I51" t="n">
         <v>211</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>214</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2254,7 +2218,9 @@
       <c r="I52" t="n">
         <v>214</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>214</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2288,12 +2254,12 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>214</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>214</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2332,7 +2298,9 @@
       <c r="I54" t="n">
         <v>214</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>214</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2371,7 +2339,9 @@
       <c r="I55" t="n">
         <v>214</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>214</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2405,12 +2375,12 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>214</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>214</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2444,12 +2414,12 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>214</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>214</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2483,12 +2453,12 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>214</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>214</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2527,7 +2497,9 @@
       <c r="I59" t="n">
         <v>214</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>214</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2561,12 +2533,12 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>214</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>214</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2600,12 +2572,12 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>214</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>214</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2639,12 +2611,12 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>214</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>214</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2683,7 +2655,9 @@
       <c r="I63" t="n">
         <v>214</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>214</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2722,7 +2696,9 @@
       <c r="I64" t="n">
         <v>214</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>214</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2761,7 +2737,9 @@
       <c r="I65" t="n">
         <v>215</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>214</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2800,7 +2778,9 @@
       <c r="I66" t="n">
         <v>214</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>214</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2839,7 +2819,9 @@
       <c r="I67" t="n">
         <v>214</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>214</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2873,12 +2855,12 @@
         <v>-44841.20300000001</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>215</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>214</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2917,7 +2899,9 @@
       <c r="I69" t="n">
         <v>215</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>214</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2956,7 +2940,9 @@
       <c r="I70" t="n">
         <v>214</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>214</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2995,7 +2981,9 @@
       <c r="I71" t="n">
         <v>216</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>214</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3029,12 +3017,12 @@
         <v>-39566.61310000001</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>217</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>214</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3068,12 +3056,12 @@
         <v>-39566.61310000001</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>218</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>214</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3110,7 +3098,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>214</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3147,7 +3137,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>214</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3184,7 +3176,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>214</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3221,7 +3215,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>214</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3258,7 +3254,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>214</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3295,7 +3293,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>214</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3332,7 +3332,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>214</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3369,7 +3371,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>214</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3406,7 +3410,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>214</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3443,7 +3449,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>214</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3480,7 +3488,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>214</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3517,7 +3527,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>214</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3554,7 +3566,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>214</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3591,7 +3605,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>214</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3628,7 +3644,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>214</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3665,7 +3683,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>214</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3702,7 +3722,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>214</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3739,7 +3761,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>214</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3773,12 +3797,12 @@
         <v>-41100.00440000001</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>217</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>214</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3812,12 +3836,12 @@
         <v>-41098.00440000001</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>217</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>214</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3851,12 +3875,12 @@
         <v>-41098.00440000001</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>218</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>214</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3890,12 +3914,12 @@
         <v>-36389.715</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>218</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>214</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3929,12 +3953,12 @@
         <v>-38213.9769</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>219</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>214</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3968,12 +3992,12 @@
         <v>-38213.9769</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>218</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>214</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4007,12 +4031,12 @@
         <v>-33692.9769</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>218</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>214</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4046,12 +4070,12 @@
         <v>-22784.5567</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>219</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>214</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4085,12 +4109,12 @@
         <v>-22784.5567</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>222</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>214</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4127,7 +4151,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>214</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4164,7 +4190,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>214</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4201,7 +4229,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>214</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4238,7 +4268,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>214</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4275,7 +4307,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>214</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4309,17 +4343,19 @@
         <v>-20632.3961</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>214</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>1</v>
+        <v>1.041728971962617</v>
       </c>
       <c r="M106" t="inlineStr"/>
     </row>
@@ -4346,15 +4382,11 @@
         <v>-20632.3961</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4383,15 +4415,11 @@
         <v>-20632.3961</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4420,15 +4448,11 @@
         <v>-20632.3961</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4457,15 +4481,11 @@
         <v>-20951.4617</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4494,15 +4514,11 @@
         <v>-20949.4617</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4531,15 +4547,11 @@
         <v>-20949.4617</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4568,15 +4580,11 @@
         <v>-20949.4617</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4605,15 +4613,11 @@
         <v>-19179.4617</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4642,15 +4646,11 @@
         <v>-18579.4617</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4679,15 +4679,11 @@
         <v>-18579.4617</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4720,11 +4716,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4753,15 +4745,11 @@
         <v>-18579.4617</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4790,15 +4778,11 @@
         <v>-18579.4617</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4831,11 +4815,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4864,15 +4844,11 @@
         <v>-18139.1329</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4905,11 +4881,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4942,11 +4914,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4979,11 +4947,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5016,11 +4980,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5053,11 +5013,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5090,11 +5046,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5127,11 +5079,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5160,16 +5108,14 @@
         <v>15598.7401</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
       <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
@@ -5195,7 +5141,7 @@
         <v>17370.7401</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5228,7 +5174,7 @@
         <v>17370.7401</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5239,6 +5185,6 @@
       <c r="M131" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest INS.xlsx
+++ b/BackTest/2019-10-19 BackTest INS.xlsx
@@ -1540,14 +1540,10 @@
         <v>-31671.7771</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>214</v>
-      </c>
-      <c r="J35" t="n">
-        <v>214</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
@@ -1580,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>214</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1619,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>214</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1655,19 +1639,11 @@
         <v>-50452.856</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>213</v>
-      </c>
-      <c r="J38" t="n">
-        <v>214</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1696,19 +1672,11 @@
         <v>-43694.122</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>213</v>
-      </c>
-      <c r="J39" t="n">
-        <v>214</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1737,19 +1705,11 @@
         <v>-43694.122</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>214</v>
-      </c>
-      <c r="J40" t="n">
-        <v>214</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1778,19 +1738,11 @@
         <v>-43694.122</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>214</v>
-      </c>
-      <c r="J41" t="n">
-        <v>214</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1822,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>214</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1858,19 +1804,11 @@
         <v>-43689.122</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>214</v>
-      </c>
-      <c r="J43" t="n">
-        <v>214</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1902,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>214</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1941,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>214</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1980,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>214</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2019,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>214</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2058,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>214</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2097,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>214</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2136,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>214</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2178,13 +2074,9 @@
         <v>211</v>
       </c>
       <c r="J51" t="n">
-        <v>214</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2213,17 +2105,15 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>214</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -2258,11 +2148,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -2301,11 +2191,7 @@
       <c r="J54" t="n">
         <v>214</v>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2344,7 +2230,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -2375,15 +2261,17 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>214</v>
+      </c>
       <c r="J56" t="n">
         <v>214</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -2414,17 +2302,15 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>214</v>
+      </c>
       <c r="J57" t="n">
         <v>214</v>
       </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2453,15 +2339,17 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>214</v>
+      </c>
       <c r="J58" t="n">
         <v>214</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -2502,7 +2390,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -2533,17 +2421,15 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>214</v>
+      </c>
       <c r="J60" t="n">
         <v>214</v>
       </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2572,15 +2458,17 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>214</v>
+      </c>
       <c r="J61" t="n">
         <v>214</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -2611,15 +2499,17 @@
         <v>-44025.22300000001</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>214</v>
+      </c>
       <c r="J62" t="n">
         <v>214</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -2658,11 +2548,7 @@
       <c r="J63" t="n">
         <v>214</v>
       </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2701,7 +2587,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -2742,7 +2628,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -2783,7 +2669,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -2855,9 +2741,11 @@
         <v>-44841.20300000001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>215</v>
+      </c>
       <c r="J68" t="n">
         <v>214</v>
       </c>
@@ -3017,9 +2905,11 @@
         <v>-39566.61310000001</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>217</v>
+      </c>
       <c r="J72" t="n">
         <v>214</v>
       </c>
@@ -3056,9 +2946,11 @@
         <v>-39566.61310000001</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>218</v>
+      </c>
       <c r="J73" t="n">
         <v>214</v>
       </c>
@@ -3095,9 +2987,11 @@
         <v>-40632.61310000001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>218</v>
+      </c>
       <c r="J74" t="n">
         <v>214</v>
       </c>
@@ -3134,9 +3028,11 @@
         <v>-39632.67910000001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>216</v>
+      </c>
       <c r="J75" t="n">
         <v>214</v>
       </c>
@@ -3173,9 +3069,11 @@
         <v>-39383.00440000001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>217</v>
+      </c>
       <c r="J76" t="n">
         <v>214</v>
       </c>
@@ -3212,9 +3110,11 @@
         <v>-39380.00440000001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>219</v>
+      </c>
       <c r="J77" t="n">
         <v>214</v>
       </c>
@@ -3368,9 +3268,11 @@
         <v>-41380.00440000001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>219</v>
+      </c>
       <c r="J81" t="n">
         <v>214</v>
       </c>
@@ -3407,9 +3309,11 @@
         <v>-41380.00440000001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>219</v>
+      </c>
       <c r="J82" t="n">
         <v>214</v>
       </c>
@@ -3446,9 +3350,11 @@
         <v>-41380.00440000001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>219</v>
+      </c>
       <c r="J83" t="n">
         <v>214</v>
       </c>
@@ -3485,9 +3391,11 @@
         <v>-42380.00440000001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>219</v>
+      </c>
       <c r="J84" t="n">
         <v>214</v>
       </c>
@@ -3524,9 +3432,11 @@
         <v>-41090.00440000001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>218</v>
+      </c>
       <c r="J85" t="n">
         <v>214</v>
       </c>
@@ -3563,9 +3473,11 @@
         <v>-41090.00440000001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>219</v>
+      </c>
       <c r="J86" t="n">
         <v>214</v>
       </c>
@@ -4343,7 +4255,7 @@
         <v>-20632.3961</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
@@ -4351,11 +4263,11 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>1.041728971962617</v>
+        <v>1</v>
       </c>
       <c r="M106" t="inlineStr"/>
     </row>
@@ -4382,11 +4294,17 @@
         <v>-20632.3961</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>214</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4415,11 +4333,17 @@
         <v>-20632.3961</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>214</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4448,11 +4372,17 @@
         <v>-20632.3961</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>214</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4481,11 +4411,17 @@
         <v>-20951.4617</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>214</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4514,11 +4450,17 @@
         <v>-20949.4617</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>214</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4547,11 +4489,17 @@
         <v>-20949.4617</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>214</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4580,11 +4528,17 @@
         <v>-20949.4617</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>214</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4613,11 +4567,17 @@
         <v>-19179.4617</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>214</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4646,11 +4606,17 @@
         <v>-18579.4617</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>214</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4679,11 +4645,17 @@
         <v>-18579.4617</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>214</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4715,8 +4687,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>214</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4745,11 +4723,17 @@
         <v>-18579.4617</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>214</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4778,11 +4762,17 @@
         <v>-18579.4617</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>214</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4814,8 +4804,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>214</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4844,11 +4840,17 @@
         <v>-18139.1329</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>214</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4880,8 +4882,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>214</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4913,8 +4921,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>214</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4946,8 +4960,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>214</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4979,8 +4999,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>214</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5012,8 +5038,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>214</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5045,8 +5077,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>214</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5075,15 +5113,23 @@
         <v>26918.8062</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>214</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>1.088457943925234</v>
+      </c>
+      <c r="M128" t="n">
+        <v>1.028436018957346</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5108,7 +5154,7 @@
         <v>15598.7401</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5141,7 +5187,7 @@
         <v>17370.7401</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5174,7 +5220,7 @@
         <v>17370.7401</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>

--- a/BackTest/2019-10-19 BackTest INS.xlsx
+++ b/BackTest/2019-10-19 BackTest INS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M131"/>
+  <dimension ref="A1:L131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1647</v>
       </c>
       <c r="G2" t="n">
-        <v>-21554.0553</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>-21554.0553</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>90</v>
       </c>
       <c r="G4" t="n">
-        <v>-21554.0553</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>-21554.0553</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>945.0065</v>
       </c>
       <c r="G6" t="n">
-        <v>-21554.0553</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>169</v>
       </c>
       <c r="G7" t="n">
-        <v>-21554.0553</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>2298.3871</v>
       </c>
       <c r="G8" t="n">
-        <v>-23852.4424</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>142.8853</v>
       </c>
       <c r="G9" t="n">
-        <v>-23709.5571</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>1959</v>
       </c>
       <c r="G10" t="n">
-        <v>-23709.5571</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>1715</v>
       </c>
       <c r="G11" t="n">
-        <v>-23709.5571</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>245</v>
       </c>
       <c r="G12" t="n">
-        <v>-23709.5571</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>766.8826</v>
       </c>
       <c r="G13" t="n">
-        <v>-23709.5571</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>420.4598</v>
       </c>
       <c r="G14" t="n">
-        <v>-23709.5571</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>5273.5</v>
       </c>
       <c r="G15" t="n">
-        <v>-23709.5571</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>-23709.5571</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>-23709.5571</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>3286.1189</v>
       </c>
       <c r="G18" t="n">
-        <v>-26995.676</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>2396.5281</v>
       </c>
       <c r="G19" t="n">
-        <v>-24599.1479</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>-24600.1479</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>-24598.1479</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>6110.4174</v>
       </c>
       <c r="G22" t="n">
-        <v>-30708.5653</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>590</v>
       </c>
       <c r="G23" t="n">
-        <v>-30708.5653</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>718.9999</v>
       </c>
       <c r="G24" t="n">
-        <v>-30708.5653</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>484</v>
       </c>
       <c r="G25" t="n">
-        <v>-30708.5653</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>663.5886</v>
       </c>
       <c r="G26" t="n">
-        <v>-30708.5653</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>263</v>
       </c>
       <c r="G27" t="n">
-        <v>-30445.5653</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>-30443.5653</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>-30453.5653</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>2880</v>
       </c>
       <c r="G30" t="n">
-        <v>-30453.5653</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>1484.0308</v>
       </c>
       <c r="G31" t="n">
-        <v>-30453.5653</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>1328.9215</v>
       </c>
       <c r="G32" t="n">
-        <v>-31782.4868</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,21 @@
         <v>1245.4963</v>
       </c>
       <c r="G33" t="n">
-        <v>-31782.4868</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1409,21 @@
         <v>507</v>
       </c>
       <c r="G34" t="n">
-        <v>-31275.4868</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1445,21 @@
         <v>396.2903</v>
       </c>
       <c r="G35" t="n">
-        <v>-31671.7771</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1481,21 @@
         <v>23104.5892</v>
       </c>
       <c r="G36" t="n">
-        <v>-54776.3663</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1517,21 @@
         <v>4323.5103</v>
       </c>
       <c r="G37" t="n">
-        <v>-50452.856</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1553,21 @@
         <v>4073.5102</v>
       </c>
       <c r="G38" t="n">
-        <v>-50452.856</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1589,21 @@
         <v>6758.734</v>
       </c>
       <c r="G39" t="n">
-        <v>-43694.122</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1625,21 @@
         <v>5027.6607</v>
       </c>
       <c r="G40" t="n">
-        <v>-43694.122</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1661,21 @@
         <v>155</v>
       </c>
       <c r="G41" t="n">
-        <v>-43694.122</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1697,21 @@
         <v>150</v>
       </c>
       <c r="G42" t="n">
-        <v>-43694.122</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1733,21 @@
         <v>5</v>
       </c>
       <c r="G43" t="n">
-        <v>-43689.122</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1769,21 @@
         <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>-43689.122</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1805,21 @@
         <v>1616.8281</v>
       </c>
       <c r="G45" t="n">
-        <v>-42072.2939</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1841,19 @@
         <v>1104.6448</v>
       </c>
       <c r="G46" t="n">
-        <v>-43176.93870000001</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1875,19 @@
         <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>-43174.93870000001</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1909,21 @@
         <v>435.2843</v>
       </c>
       <c r="G48" t="n">
-        <v>-43610.22300000001</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1945,21 @@
         <v>1116</v>
       </c>
       <c r="G49" t="n">
-        <v>-43610.22300000001</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1981,19 @@
         <v>416</v>
       </c>
       <c r="G50" t="n">
-        <v>-44026.22300000001</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,22 +2015,19 @@
         <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>-44025.22300000001</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>211</v>
-      </c>
-      <c r="J51" t="n">
-        <v>211</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2102,24 +2049,21 @@
         <v>250</v>
       </c>
       <c r="G52" t="n">
-        <v>-44025.22300000001</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>211</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2141,24 +2085,21 @@
         <v>357</v>
       </c>
       <c r="G53" t="n">
-        <v>-44025.22300000001</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>211</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2180,22 +2121,21 @@
         <v>1689.9999</v>
       </c>
       <c r="G54" t="n">
-        <v>-44025.22300000001</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>214</v>
-      </c>
-      <c r="J54" t="n">
-        <v>214</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>214</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2217,26 +2157,21 @@
         <v>1423.4732</v>
       </c>
       <c r="G55" t="n">
-        <v>-44025.22300000001</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>214</v>
-      </c>
-      <c r="J55" t="n">
-        <v>214</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>214</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2258,26 +2193,21 @@
         <v>332</v>
       </c>
       <c r="G56" t="n">
-        <v>-44025.22300000001</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>214</v>
-      </c>
-      <c r="J56" t="n">
-        <v>214</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>214</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2299,22 +2229,21 @@
         <v>2601</v>
       </c>
       <c r="G57" t="n">
-        <v>-44025.22300000001</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>214</v>
-      </c>
-      <c r="J57" t="n">
-        <v>214</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>214</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2336,26 +2265,21 @@
         <v>3531.1672</v>
       </c>
       <c r="G58" t="n">
-        <v>-44025.22300000001</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>214</v>
-      </c>
-      <c r="J58" t="n">
-        <v>214</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>214</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2377,26 +2301,21 @@
         <v>4392</v>
       </c>
       <c r="G59" t="n">
-        <v>-44025.22300000001</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>214</v>
-      </c>
-      <c r="J59" t="n">
-        <v>214</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>214</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2418,22 +2337,21 @@
         <v>2129</v>
       </c>
       <c r="G60" t="n">
-        <v>-44025.22300000001</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>214</v>
-      </c>
-      <c r="J60" t="n">
-        <v>214</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>214</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2455,26 +2373,21 @@
         <v>229.4903</v>
       </c>
       <c r="G61" t="n">
-        <v>-44025.22300000001</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>214</v>
-      </c>
-      <c r="J61" t="n">
-        <v>214</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>214</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2496,26 +2409,21 @@
         <v>211</v>
       </c>
       <c r="G62" t="n">
-        <v>-44025.22300000001</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>214</v>
-      </c>
-      <c r="J62" t="n">
-        <v>214</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>214</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2537,22 +2445,21 @@
         <v>155.9644</v>
       </c>
       <c r="G63" t="n">
-        <v>-44025.22300000001</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>214</v>
-      </c>
-      <c r="J63" t="n">
-        <v>214</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>214</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2574,26 +2481,21 @@
         <v>2</v>
       </c>
       <c r="G64" t="n">
-        <v>-44023.22300000001</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>214</v>
-      </c>
-      <c r="J64" t="n">
-        <v>214</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>214</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2615,26 +2517,21 @@
         <v>818.98</v>
       </c>
       <c r="G65" t="n">
-        <v>-44842.20300000001</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>215</v>
-      </c>
-      <c r="J65" t="n">
-        <v>214</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>215</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2656,26 +2553,19 @@
         <v>1005</v>
       </c>
       <c r="G66" t="n">
-        <v>-44842.20300000001</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>214</v>
-      </c>
-      <c r="J66" t="n">
-        <v>214</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2697,26 +2587,19 @@
         <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>-44841.20300000001</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>214</v>
-      </c>
-      <c r="J67" t="n">
-        <v>214</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2738,26 +2621,19 @@
         <v>47.8177</v>
       </c>
       <c r="G68" t="n">
-        <v>-44841.20300000001</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>215</v>
-      </c>
-      <c r="J68" t="n">
-        <v>214</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2779,26 +2655,19 @@
         <v>47.8177</v>
       </c>
       <c r="G69" t="n">
-        <v>-44889.02070000001</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>215</v>
-      </c>
-      <c r="J69" t="n">
-        <v>214</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2820,26 +2689,19 @@
         <v>3009.4076</v>
       </c>
       <c r="G70" t="n">
-        <v>-41879.61310000001</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>214</v>
-      </c>
-      <c r="J70" t="n">
-        <v>214</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2861,26 +2723,19 @@
         <v>2312</v>
       </c>
       <c r="G71" t="n">
-        <v>-39567.61310000001</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>216</v>
-      </c>
-      <c r="J71" t="n">
-        <v>214</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2902,26 +2757,19 @@
         <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>-39566.61310000001</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>217</v>
-      </c>
-      <c r="J72" t="n">
-        <v>214</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2943,26 +2791,19 @@
         <v>1168.5604</v>
       </c>
       <c r="G73" t="n">
-        <v>-39566.61310000001</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>218</v>
-      </c>
-      <c r="J73" t="n">
-        <v>214</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2984,26 +2825,19 @@
         <v>1066</v>
       </c>
       <c r="G74" t="n">
-        <v>-40632.61310000001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>218</v>
-      </c>
-      <c r="J74" t="n">
-        <v>214</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3025,26 +2859,19 @@
         <v>999.934</v>
       </c>
       <c r="G75" t="n">
-        <v>-39632.67910000001</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>216</v>
-      </c>
-      <c r="J75" t="n">
-        <v>214</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3066,26 +2893,19 @@
         <v>249.6747</v>
       </c>
       <c r="G76" t="n">
-        <v>-39383.00440000001</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>217</v>
-      </c>
-      <c r="J76" t="n">
-        <v>214</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3107,26 +2927,19 @@
         <v>3</v>
       </c>
       <c r="G77" t="n">
-        <v>-39380.00440000001</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>219</v>
-      </c>
-      <c r="J77" t="n">
-        <v>214</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3148,24 +2961,19 @@
         <v>736.881</v>
       </c>
       <c r="G78" t="n">
-        <v>-39380.00440000001</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>214</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3187,24 +2995,19 @@
         <v>3100.6918</v>
       </c>
       <c r="G79" t="n">
-        <v>-39380.00440000001</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>214</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3226,24 +3029,19 @@
         <v>2000</v>
       </c>
       <c r="G80" t="n">
-        <v>-41380.00440000001</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>214</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3265,26 +3063,19 @@
         <v>1000</v>
       </c>
       <c r="G81" t="n">
-        <v>-41380.00440000001</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>219</v>
-      </c>
-      <c r="J81" t="n">
-        <v>214</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3306,26 +3097,19 @@
         <v>423</v>
       </c>
       <c r="G82" t="n">
-        <v>-41380.00440000001</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>219</v>
-      </c>
-      <c r="J82" t="n">
-        <v>214</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3347,26 +3131,19 @@
         <v>577</v>
       </c>
       <c r="G83" t="n">
-        <v>-41380.00440000001</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>219</v>
-      </c>
-      <c r="J83" t="n">
-        <v>214</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3388,26 +3165,19 @@
         <v>1000</v>
       </c>
       <c r="G84" t="n">
-        <v>-42380.00440000001</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>219</v>
-      </c>
-      <c r="J84" t="n">
-        <v>214</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3429,26 +3199,19 @@
         <v>1290</v>
       </c>
       <c r="G85" t="n">
-        <v>-41090.00440000001</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>218</v>
-      </c>
-      <c r="J85" t="n">
-        <v>214</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3470,26 +3233,19 @@
         <v>43838.5591</v>
       </c>
       <c r="G86" t="n">
-        <v>-41090.00440000001</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>219</v>
-      </c>
-      <c r="J86" t="n">
-        <v>214</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3511,24 +3267,19 @@
         <v>1233</v>
       </c>
       <c r="G87" t="n">
-        <v>-42323.00440000001</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>214</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3550,24 +3301,19 @@
         <v>10</v>
       </c>
       <c r="G88" t="n">
-        <v>-42333.00440000001</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>214</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3589,24 +3335,19 @@
         <v>3.9825</v>
       </c>
       <c r="G89" t="n">
-        <v>-42333.00440000001</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>214</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3628,24 +3369,19 @@
         <v>1233</v>
       </c>
       <c r="G90" t="n">
-        <v>-41100.00440000001</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>214</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3667,24 +3403,19 @@
         <v>1361</v>
       </c>
       <c r="G91" t="n">
-        <v>-41100.00440000001</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>214</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3706,24 +3437,19 @@
         <v>15.1467</v>
       </c>
       <c r="G92" t="n">
-        <v>-41100.00440000001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>214</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3745,24 +3471,19 @@
         <v>2</v>
       </c>
       <c r="G93" t="n">
-        <v>-41098.00440000001</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>214</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3784,24 +3505,19 @@
         <v>824.9999</v>
       </c>
       <c r="G94" t="n">
-        <v>-41098.00440000001</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>214</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3823,24 +3539,19 @@
         <v>4708.2894</v>
       </c>
       <c r="G95" t="n">
-        <v>-36389.715</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>214</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3862,24 +3573,19 @@
         <v>1824.2619</v>
       </c>
       <c r="G96" t="n">
-        <v>-38213.9769</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>214</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3901,24 +3607,19 @@
         <v>513</v>
       </c>
       <c r="G97" t="n">
-        <v>-38213.9769</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>214</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3940,24 +3641,19 @@
         <v>4521</v>
       </c>
       <c r="G98" t="n">
-        <v>-33692.9769</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>214</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3979,24 +3675,19 @@
         <v>10908.4202</v>
       </c>
       <c r="G99" t="n">
-        <v>-22784.5567</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>214</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4018,24 +3709,19 @@
         <v>12095.0172</v>
       </c>
       <c r="G100" t="n">
-        <v>-22784.5567</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>214</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4057,24 +3743,19 @@
         <v>69.23869999999999</v>
       </c>
       <c r="G101" t="n">
-        <v>-22784.5567</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>214</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4096,24 +3777,19 @@
         <v>2</v>
       </c>
       <c r="G102" t="n">
-        <v>-22782.5567</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>214</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4135,24 +3811,19 @@
         <v>1763.8699</v>
       </c>
       <c r="G103" t="n">
-        <v>-22782.5567</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>214</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4174,24 +3845,19 @@
         <v>1920.2886</v>
       </c>
       <c r="G104" t="n">
-        <v>-22782.5567</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>214</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4213,24 +3879,19 @@
         <v>5680.4466</v>
       </c>
       <c r="G105" t="n">
-        <v>-22782.5567</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>214</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4252,24 +3913,19 @@
         <v>2150.1606</v>
       </c>
       <c r="G106" t="n">
-        <v>-20632.3961</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>214</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4291,24 +3947,19 @@
         <v>1264.8794</v>
       </c>
       <c r="G107" t="n">
-        <v>-20632.3961</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>214</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4330,24 +3981,19 @@
         <v>6374.1517</v>
       </c>
       <c r="G108" t="n">
-        <v>-20632.3961</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>214</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4369,24 +4015,19 @@
         <v>1621</v>
       </c>
       <c r="G109" t="n">
-        <v>-20632.3961</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>214</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4408,24 +4049,19 @@
         <v>319.0656</v>
       </c>
       <c r="G110" t="n">
-        <v>-20951.4617</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>214</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4447,24 +4083,19 @@
         <v>2</v>
       </c>
       <c r="G111" t="n">
-        <v>-20949.4617</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>214</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4486,24 +4117,19 @@
         <v>500</v>
       </c>
       <c r="G112" t="n">
-        <v>-20949.4617</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>214</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4525,24 +4151,19 @@
         <v>500</v>
       </c>
       <c r="G113" t="n">
-        <v>-20949.4617</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>214</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4564,24 +4185,19 @@
         <v>1770</v>
       </c>
       <c r="G114" t="n">
-        <v>-19179.4617</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>214</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4603,24 +4219,19 @@
         <v>600</v>
       </c>
       <c r="G115" t="n">
-        <v>-18579.4617</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>214</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4642,24 +4253,19 @@
         <v>22999.5796</v>
       </c>
       <c r="G116" t="n">
-        <v>-18579.4617</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>214</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4681,24 +4287,19 @@
         <v>12</v>
       </c>
       <c r="G117" t="n">
-        <v>-18579.4617</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>214</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4720,24 +4321,19 @@
         <v>60</v>
       </c>
       <c r="G118" t="n">
-        <v>-18579.4617</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>214</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4759,24 +4355,19 @@
         <v>328</v>
       </c>
       <c r="G119" t="n">
-        <v>-18579.4617</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>214</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4798,24 +4389,19 @@
         <v>170</v>
       </c>
       <c r="G120" t="n">
-        <v>-18579.4617</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>214</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4837,24 +4423,19 @@
         <v>440.3288</v>
       </c>
       <c r="G121" t="n">
-        <v>-18139.1329</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>214</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4876,24 +4457,19 @@
         <v>6626.8235</v>
       </c>
       <c r="G122" t="n">
-        <v>-11512.3094</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>214</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4915,24 +4491,19 @@
         <v>540</v>
       </c>
       <c r="G123" t="n">
-        <v>-10972.3094</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>214</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4954,24 +4525,19 @@
         <v>13396.5674</v>
       </c>
       <c r="G124" t="n">
-        <v>2424.257999999996</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>214</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4993,24 +4559,19 @@
         <v>6774.8007</v>
       </c>
       <c r="G125" t="n">
-        <v>9199.058699999996</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>214</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5032,24 +4593,19 @@
         <v>17719.7475</v>
       </c>
       <c r="G126" t="n">
-        <v>26918.8062</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>214</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5071,24 +4627,19 @@
         <v>94.60680000000001</v>
       </c>
       <c r="G127" t="n">
-        <v>26918.8062</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>214</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5110,26 +4661,17 @@
         <v>11287.8703</v>
       </c>
       <c r="G128" t="n">
-        <v>26918.8062</v>
-      </c>
-      <c r="H128" t="n">
         <v>2</v>
       </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>214</v>
-      </c>
-      <c r="K128" t="inlineStr">
+      <c r="J128" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L128" t="n">
-        <v>1.088457943925234</v>
-      </c>
-      <c r="M128" t="n">
-        <v>1.028436018957346</v>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5151,18 +4693,15 @@
         <v>11320.0661</v>
       </c>
       <c r="G129" t="n">
-        <v>15598.7401</v>
-      </c>
-      <c r="H129" t="n">
         <v>2</v>
       </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5184,18 +4723,15 @@
         <v>1772</v>
       </c>
       <c r="G130" t="n">
-        <v>17370.7401</v>
-      </c>
-      <c r="H130" t="n">
         <v>2</v>
       </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5217,18 +4753,15 @@
         <v>5543.5598</v>
       </c>
       <c r="G131" t="n">
-        <v>17370.7401</v>
-      </c>
-      <c r="H131" t="n">
         <v>2</v>
       </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
